--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_5_0.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_5_0.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2528330.975226026</v>
+        <v>-2532470.681639983</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2220068.8925167</v>
+        <v>2280223.653892733</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>419463.0933791242</v>
+        <v>419463.093379124</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>15059784.44938525</v>
+        <v>15056834.55243316</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>99.47707629832576</v>
       </c>
       <c r="F2" t="n">
-        <v>71.86954418429237</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>9.031127956876844</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -719,7 +719,7 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -741,16 +741,16 @@
         <v>149.1476881355087</v>
       </c>
       <c r="D3" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>68.76350334275963</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F3" t="n">
         <v>123.1874880556995</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H3" t="n">
         <v>87.41444223540508</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>23.6778726709161</v>
+        <v>4.217641228875345</v>
       </c>
       <c r="S3" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>175.2139736830806</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
-        <v>114.7398479781407</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>220.8809405715231</v>
+        <v>66.03149870010066</v>
       </c>
     </row>
     <row r="5">
@@ -899,22 +899,22 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>12.725494085322</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G5" t="n">
         <v>9.031127956876844</v>
       </c>
       <c r="H5" t="n">
-        <v>160.8542999853979</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>114.3351151847293</v>
       </c>
     </row>
     <row r="6">
@@ -981,19 +981,19 @@
         <v>128.7880777047345</v>
       </c>
       <c r="E6" t="n">
-        <v>73.09177164960495</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G6" t="n">
         <v>118.8592197488542</v>
       </c>
       <c r="H6" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1026,7 +1026,7 @@
         <v>133.5813703291298</v>
       </c>
       <c r="T6" t="n">
-        <v>175.2139736830806</v>
+        <v>29.69211789078789</v>
       </c>
       <c r="U6" t="n">
         <v>207.9625118881446</v>
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1102,16 +1102,16 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>85.32124093375108</v>
       </c>
       <c r="T7" t="n">
-        <v>2.985676702963014</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,22 +1130,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>9.031127956876844</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>367.2890446813954</v>
+        <v>47.73382319756038</v>
       </c>
       <c r="X8" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>226.8653251659286</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.0363847091458</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1336,22 +1336,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>282.5844038405181</v>
+        <v>147.8279795613426</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>325.411485859551</v>
+        <v>325.4114858595509</v>
       </c>
       <c r="C11" t="n">
         <v>318.1654340873667</v>
       </c>
       <c r="D11" t="n">
-        <v>310.508405100767</v>
+        <v>310.5084051007669</v>
       </c>
       <c r="E11" t="n">
-        <v>327.4793772398889</v>
+        <v>48.94502233530781</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>341.64718169059</v>
       </c>
       <c r="G11" t="n">
-        <v>40.13905097439032</v>
+        <v>337.9528155621448</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>249.7639075344422</v>
       </c>
       <c r="I11" t="n">
-        <v>65.87543334372786</v>
+        <v>65.87543334372781</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>93.77010711362799</v>
+        <v>93.77010711362793</v>
       </c>
       <c r="T11" t="n">
         <v>150.1872840214455</v>
@@ -1430,10 +1430,10 @@
         <v>267.6074288087848</v>
       </c>
       <c r="W11" t="n">
-        <v>296.2107322866635</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>314.4797666215418</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>321.4474895938729</v>
@@ -1525,22 +1525,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>112.2776261096563</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>97.42475435993866</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>82.99846957177839</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>82.9249116246575</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>84.67436304442477</v>
       </c>
       <c r="G13" t="n">
-        <v>40.78297506860832</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>51.58366707901685</v>
+        <v>51.58366707901679</v>
       </c>
       <c r="S13" t="n">
-        <v>129.7096105845442</v>
+        <v>95.40891976212504</v>
       </c>
       <c r="T13" t="n">
         <v>162.2835489187162</v>
@@ -1585,13 +1585,13 @@
         <v>211.5060914457861</v>
       </c>
       <c r="V13" t="n">
-        <v>192.2412393326521</v>
+        <v>192.241239332652</v>
       </c>
       <c r="W13" t="n">
         <v>209.4187856534022</v>
       </c>
       <c r="X13" t="n">
-        <v>160.6612066001148</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>149.8026281767911</v>
@@ -1613,19 +1613,19 @@
         <v>310.508405100767</v>
       </c>
       <c r="E14" t="n">
-        <v>117.8545206798373</v>
+        <v>327.4793772398889</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>64.27240104263707</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>337.9528155621449</v>
       </c>
       <c r="H14" t="n">
-        <v>249.7639075344423</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>65.87543334372786</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,19 +1655,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>93.77010711362799</v>
+        <v>93.7701071136281</v>
       </c>
       <c r="T14" t="n">
         <v>150.1872840214455</v>
       </c>
       <c r="U14" t="n">
-        <v>182.1168898750154</v>
+        <v>182.1168898750151</v>
       </c>
       <c r="V14" t="n">
         <v>267.6074288087848</v>
       </c>
       <c r="W14" t="n">
-        <v>296.2107322866635</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>314.4797666215418</v>
@@ -1765,19 +1765,19 @@
         <v>112.2776261096563</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>97.42475435993872</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>82.99846957177844</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>82.92491162465755</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>40.78297506860832</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>51.58366707901685</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>129.7096105845442</v>
       </c>
       <c r="T16" t="n">
-        <v>162.2835489187162</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>211.5060914457861</v>
+        <v>202.8081469557528</v>
       </c>
       <c r="V16" t="n">
         <v>192.2412393326521</v>
@@ -1862,7 +1862,7 @@
         <v>190.4822506135899</v>
       </c>
       <c r="I17" t="n">
-        <v>6.593776422875307</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2093,13 +2093,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G20" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H20" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I20" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875465</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277559</v>
       </c>
       <c r="T20" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059314</v>
       </c>
       <c r="U20" t="n">
         <v>122.835232954163</v>
@@ -2141,10 +2141,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W20" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X20" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006889</v>
       </c>
       <c r="Y20" t="n">
         <v>262.1658326730205</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880391</v>
       </c>
       <c r="C22" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908632</v>
       </c>
       <c r="D22" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092604</v>
       </c>
       <c r="E22" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380516</v>
       </c>
       <c r="F22" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357242</v>
       </c>
       <c r="G22" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596456</v>
       </c>
       <c r="H22" t="n">
-        <v>23.56379621253657</v>
+        <v>23.5637962125366</v>
       </c>
       <c r="I22" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708532</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369177</v>
       </c>
       <c r="T22" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U22" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V22" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W22" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X22" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y22" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593872</v>
       </c>
     </row>
     <row r="23">
@@ -2330,13 +2330,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G23" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H23" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I23" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875465</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277559</v>
       </c>
       <c r="T23" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059314</v>
       </c>
       <c r="U23" t="n">
         <v>122.835232954163</v>
@@ -2378,10 +2378,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W23" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X23" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y23" t="n">
         <v>262.1658326730205</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880391</v>
       </c>
       <c r="C25" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908632</v>
       </c>
       <c r="D25" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092604</v>
       </c>
       <c r="E25" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380516</v>
       </c>
       <c r="F25" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357242</v>
       </c>
       <c r="G25" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596456</v>
       </c>
       <c r="H25" t="n">
-        <v>23.56379621253657</v>
+        <v>23.5637962125366</v>
       </c>
       <c r="I25" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708532</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369177</v>
       </c>
       <c r="T25" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U25" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V25" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W25" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X25" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y25" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593872</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I26" t="n">
-        <v>42.96247126414336</v>
+        <v>42.96247126414333</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.85714503404348</v>
+        <v>70.85714503404346</v>
       </c>
       <c r="T26" t="n">
         <v>127.274321941861</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.36466403007181</v>
+        <v>89.36466403007178</v>
       </c>
       <c r="C28" t="n">
-        <v>74.51179228035421</v>
+        <v>74.51179228035419</v>
       </c>
       <c r="D28" t="n">
-        <v>60.08550749219394</v>
+        <v>60.08550749219391</v>
       </c>
       <c r="E28" t="n">
-        <v>60.01194954507305</v>
+        <v>60.01194954507302</v>
       </c>
       <c r="F28" t="n">
-        <v>61.76140096484032</v>
+        <v>61.76140096484029</v>
       </c>
       <c r="G28" t="n">
-        <v>72.58023888723245</v>
+        <v>72.58023888723243</v>
       </c>
       <c r="H28" t="n">
-        <v>59.9324910538045</v>
+        <v>59.93249105380447</v>
       </c>
       <c r="I28" t="n">
-        <v>37.77220663497643</v>
+        <v>37.7722066349764</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>28.67070499943235</v>
+        <v>28.67070499943232</v>
       </c>
       <c r="S28" t="n">
-        <v>106.7966485049597</v>
+        <v>106.7966485049596</v>
       </c>
       <c r="T28" t="n">
-        <v>139.3705868391318</v>
+        <v>139.3705868391317</v>
       </c>
       <c r="U28" t="n">
         <v>188.5931293662016</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>290.153340954212</v>
+        <v>283.7098784815727</v>
       </c>
       <c r="C32" t="n">
-        <v>282.9072891820278</v>
+        <v>276.4638267093885</v>
       </c>
       <c r="D32" t="n">
-        <v>275.250260195428</v>
+        <v>268.8067977227887</v>
       </c>
       <c r="E32" t="n">
-        <v>292.22123233455</v>
+        <v>285.7777698619107</v>
       </c>
       <c r="F32" t="n">
-        <v>306.3890367852511</v>
+        <v>299.9455743126118</v>
       </c>
       <c r="G32" t="n">
-        <v>302.694670656806</v>
+        <v>296.2512081841666</v>
       </c>
       <c r="H32" t="n">
-        <v>214.5057626291033</v>
+        <v>208.062300156464</v>
       </c>
       <c r="I32" t="n">
-        <v>30.61728843838891</v>
+        <v>24.17382596574959</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.51196220828903</v>
+        <v>52.06849973564971</v>
       </c>
       <c r="T32" t="n">
-        <v>114.9291391161066</v>
+        <v>108.4856766434673</v>
       </c>
       <c r="U32" t="n">
-        <v>146.8587449696765</v>
+        <v>140.4152824970371</v>
       </c>
       <c r="V32" t="n">
-        <v>232.3492839034459</v>
+        <v>225.9058214308066</v>
       </c>
       <c r="W32" t="n">
-        <v>260.9525873813245</v>
+        <v>254.5091249086852</v>
       </c>
       <c r="X32" t="n">
-        <v>279.2216217162028</v>
+        <v>272.7781592435635</v>
       </c>
       <c r="Y32" t="n">
-        <v>286.189344688534</v>
+        <v>279.7458822158947</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>77.01948120431736</v>
+        <v>70.57601873167803</v>
       </c>
       <c r="C34" t="n">
-        <v>62.16660945459977</v>
+        <v>55.72314698196044</v>
       </c>
       <c r="D34" t="n">
-        <v>47.74032466643949</v>
+        <v>41.29686219380017</v>
       </c>
       <c r="E34" t="n">
-        <v>47.6667667193186</v>
+        <v>41.22330424667928</v>
       </c>
       <c r="F34" t="n">
-        <v>49.41621813908587</v>
+        <v>42.97275566644655</v>
       </c>
       <c r="G34" t="n">
-        <v>60.23505606147801</v>
+        <v>53.79159358883868</v>
       </c>
       <c r="H34" t="n">
-        <v>47.58730822805005</v>
+        <v>41.14384575541072</v>
       </c>
       <c r="I34" t="n">
-        <v>25.42702380922198</v>
+        <v>18.98356133658265</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>16.3255221736779</v>
+        <v>9.882059701038571</v>
       </c>
       <c r="S34" t="n">
-        <v>94.45146567920521</v>
+        <v>88.00800320656589</v>
       </c>
       <c r="T34" t="n">
-        <v>127.0254040133773</v>
+        <v>120.581941540738</v>
       </c>
       <c r="U34" t="n">
-        <v>176.2479465404472</v>
+        <v>169.8044840678078</v>
       </c>
       <c r="V34" t="n">
-        <v>156.9830944273131</v>
+        <v>150.5396319546738</v>
       </c>
       <c r="W34" t="n">
-        <v>174.1606407480633</v>
+        <v>167.7171782754239</v>
       </c>
       <c r="X34" t="n">
-        <v>125.4030616947758</v>
+        <v>118.9595992221365</v>
       </c>
       <c r="Y34" t="n">
-        <v>114.5444832714522</v>
+        <v>108.1010207988128</v>
       </c>
     </row>
     <row r="35">
@@ -3974,28 +3974,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386984</v>
       </c>
       <c r="C44" t="n">
-        <v>258.8837771665143</v>
+        <v>258.8837771665142</v>
       </c>
       <c r="D44" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E44" t="n">
-        <v>268.1977203190365</v>
+        <v>268.1977203190364</v>
       </c>
       <c r="F44" t="n">
-        <v>282.3655247697376</v>
+        <v>282.3655247697375</v>
       </c>
       <c r="G44" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H44" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I44" t="n">
-        <v>6.593776422875465</v>
+        <v>6.593776422875351</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>34.48845019277559</v>
+        <v>34.48845019277547</v>
       </c>
       <c r="T44" t="n">
-        <v>90.90562710059314</v>
+        <v>90.90562710059302</v>
       </c>
       <c r="U44" t="n">
-        <v>122.835232954163</v>
+        <v>122.8352329541629</v>
       </c>
       <c r="V44" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879323</v>
       </c>
       <c r="W44" t="n">
-        <v>236.9290753658111</v>
+        <v>236.9290753658109</v>
       </c>
       <c r="X44" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y44" t="n">
-        <v>262.1658326730205</v>
+        <v>262.1658326730204</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>52.99596918880391</v>
+        <v>52.9959691888038</v>
       </c>
       <c r="C46" t="n">
-        <v>38.14309743908632</v>
+        <v>38.1430974390862</v>
       </c>
       <c r="D46" t="n">
-        <v>23.71681265092604</v>
+        <v>23.71681265092593</v>
       </c>
       <c r="E46" t="n">
-        <v>23.64325470380516</v>
+        <v>23.64325470380504</v>
       </c>
       <c r="F46" t="n">
-        <v>25.39270612357242</v>
+        <v>25.39270612357231</v>
       </c>
       <c r="G46" t="n">
-        <v>36.21154404596456</v>
+        <v>36.21154404596444</v>
       </c>
       <c r="H46" t="n">
-        <v>23.5637962125366</v>
+        <v>23.56379621253649</v>
       </c>
       <c r="I46" t="n">
-        <v>1.403511793708532</v>
+        <v>1.403511793708418</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>70.42795366369177</v>
+        <v>70.42795366369165</v>
       </c>
       <c r="T46" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978637</v>
       </c>
       <c r="U46" t="n">
-        <v>152.2244345249337</v>
+        <v>152.2244345249336</v>
       </c>
       <c r="V46" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117995</v>
       </c>
       <c r="W46" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X46" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y46" t="n">
-        <v>90.52097125593872</v>
+        <v>90.5209712559386</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1042.167257230338</v>
+        <v>972.0423359891915</v>
       </c>
       <c r="C2" t="n">
-        <v>648.9917557332681</v>
+        <v>972.0423359891915</v>
       </c>
       <c r="D2" t="n">
-        <v>263.5506269499358</v>
+        <v>972.0423359891915</v>
       </c>
       <c r="E2" t="n">
-        <v>263.5506269499358</v>
+        <v>871.5604407383574</v>
       </c>
       <c r="F2" t="n">
-        <v>190.9551277738829</v>
+        <v>454.6660022683352</v>
       </c>
       <c r="G2" t="n">
-        <v>181.8327763022901</v>
+        <v>41.50324675633837</v>
       </c>
       <c r="H2" t="n">
-        <v>181.8327763022901</v>
+        <v>41.50324675633837</v>
       </c>
       <c r="I2" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633837</v>
       </c>
       <c r="J2" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633837</v>
       </c>
       <c r="K2" t="n">
-        <v>43.49565939475497</v>
+        <v>74.88432743274507</v>
       </c>
       <c r="L2" t="n">
-        <v>536.8159511132839</v>
+        <v>74.88432743274507</v>
       </c>
       <c r="M2" t="n">
-        <v>673.899032935488</v>
+        <v>588.4870060424323</v>
       </c>
       <c r="N2" t="n">
-        <v>1201.71031657295</v>
+        <v>1102.08968465212</v>
       </c>
       <c r="O2" t="n">
-        <v>1641.749917465278</v>
+        <v>1542.129285544448</v>
       </c>
       <c r="P2" t="n">
-        <v>1989.9374095968</v>
+        <v>1890.31677767597</v>
       </c>
       <c r="Q2" t="n">
-        <v>2174.782969737749</v>
+        <v>2075.162337816918</v>
       </c>
       <c r="R2" t="n">
-        <v>2174.782969737749</v>
+        <v>2075.162337816918</v>
       </c>
       <c r="S2" t="n">
-        <v>2008.269414678799</v>
+        <v>1908.648782757969</v>
       </c>
       <c r="T2" t="n">
-        <v>1784.768812238216</v>
+        <v>1685.148180317386</v>
       </c>
       <c r="U2" t="n">
-        <v>1784.768812238216</v>
+        <v>1685.148180317386</v>
       </c>
       <c r="V2" t="n">
-        <v>1442.662002941734</v>
+        <v>1343.041371020904</v>
       </c>
       <c r="W2" t="n">
-        <v>1442.662002941734</v>
+        <v>972.0423359891915</v>
       </c>
       <c r="X2" t="n">
-        <v>1442.662002941734</v>
+        <v>972.0423359891915</v>
       </c>
       <c r="Y2" t="n">
-        <v>1442.662002941734</v>
+        <v>972.0423359891915</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>655.8134179021438</v>
+        <v>710.7802625178497</v>
       </c>
       <c r="C3" t="n">
-        <v>505.159187462236</v>
+        <v>560.1260320779419</v>
       </c>
       <c r="D3" t="n">
-        <v>375.0702200837163</v>
+        <v>560.1260320779419</v>
       </c>
       <c r="E3" t="n">
-        <v>305.6121358991106</v>
+        <v>423.6795411888296</v>
       </c>
       <c r="F3" t="n">
-        <v>181.1803297822424</v>
+        <v>299.2477350719614</v>
       </c>
       <c r="G3" t="n">
-        <v>181.1803297822424</v>
+        <v>179.1879171438259</v>
       </c>
       <c r="H3" t="n">
-        <v>92.88291338284338</v>
+        <v>90.89050074442679</v>
       </c>
       <c r="I3" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633837</v>
       </c>
       <c r="J3" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633837</v>
       </c>
       <c r="K3" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633837</v>
       </c>
       <c r="L3" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633837</v>
       </c>
       <c r="M3" t="n">
-        <v>581.7544444048477</v>
+        <v>407.9705203262558</v>
       </c>
       <c r="N3" t="n">
-        <v>1018.27622687548</v>
+        <v>921.5731989359431</v>
       </c>
       <c r="O3" t="n">
-        <v>1534.796509466461</v>
+        <v>1435.17587754563</v>
       </c>
       <c r="P3" t="n">
-        <v>1940.417878182858</v>
+        <v>1840.797246262028</v>
       </c>
       <c r="Q3" t="n">
-        <v>2174.782969737749</v>
+        <v>2075.162337816918</v>
       </c>
       <c r="R3" t="n">
-        <v>2150.865926635813</v>
+        <v>2070.902094151388</v>
       </c>
       <c r="S3" t="n">
-        <v>2015.935249535682</v>
+        <v>2070.902094151388</v>
       </c>
       <c r="T3" t="n">
-        <v>1838.95143773459</v>
+        <v>1893.918282350296</v>
       </c>
       <c r="U3" t="n">
-        <v>1628.888294413232</v>
+        <v>1683.855139028938</v>
       </c>
       <c r="V3" t="n">
-        <v>1406.348292784299</v>
+        <v>1461.315137400005</v>
       </c>
       <c r="W3" t="n">
-        <v>1176.231046917586</v>
+        <v>1231.197891533292</v>
       </c>
       <c r="X3" t="n">
-        <v>986.9239692675978</v>
+        <v>1041.890813883304</v>
       </c>
       <c r="Y3" t="n">
-        <v>807.6097523431051</v>
+        <v>862.576596958811</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633837</v>
       </c>
       <c r="C4" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633837</v>
       </c>
       <c r="D4" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633837</v>
       </c>
       <c r="E4" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633837</v>
       </c>
       <c r="F4" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633837</v>
       </c>
       <c r="G4" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633837</v>
       </c>
       <c r="H4" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633837</v>
       </c>
       <c r="I4" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633837</v>
       </c>
       <c r="J4" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633837</v>
       </c>
       <c r="K4" t="n">
-        <v>125.3307005046968</v>
+        <v>123.3382878662802</v>
       </c>
       <c r="L4" t="n">
-        <v>289.4583403784966</v>
+        <v>287.46592774008</v>
       </c>
       <c r="M4" t="n">
-        <v>475.7499187167606</v>
+        <v>473.757506078344</v>
       </c>
       <c r="N4" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095532</v>
       </c>
       <c r="O4" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512612</v>
       </c>
       <c r="P4" t="n">
-        <v>941.5204855662564</v>
+        <v>939.5280729278397</v>
       </c>
       <c r="Q4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978907</v>
       </c>
       <c r="R4" t="n">
-        <v>821.0416925688844</v>
+        <v>942.9502692978907</v>
       </c>
       <c r="S4" t="n">
-        <v>618.2256087514338</v>
+        <v>942.9502692978907</v>
       </c>
       <c r="T4" t="n">
-        <v>382.5065569196679</v>
+        <v>942.9502692978907</v>
       </c>
       <c r="U4" t="n">
-        <v>382.5065569196679</v>
+        <v>657.5114775397917</v>
       </c>
       <c r="V4" t="n">
-        <v>382.5065569196679</v>
+        <v>391.5321323606159</v>
       </c>
       <c r="W4" t="n">
-        <v>382.5065569196679</v>
+        <v>108.2017302917936</v>
       </c>
       <c r="X4" t="n">
-        <v>266.6077205781116</v>
+        <v>108.2017302917936</v>
       </c>
       <c r="Y4" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633837</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>759.4637545949118</v>
+        <v>1570.219717411865</v>
       </c>
       <c r="C5" t="n">
-        <v>366.2882530978424</v>
+        <v>1177.044215914795</v>
       </c>
       <c r="D5" t="n">
-        <v>366.2882530978424</v>
+        <v>791.6030871314628</v>
       </c>
       <c r="E5" t="n">
-        <v>366.2882530978424</v>
+        <v>791.6030871314628</v>
       </c>
       <c r="F5" t="n">
-        <v>353.4342186682242</v>
+        <v>374.7086486614405</v>
       </c>
       <c r="G5" t="n">
-        <v>344.3118671966315</v>
+        <v>365.5862971898478</v>
       </c>
       <c r="H5" t="n">
-        <v>181.8327763022901</v>
+        <v>41.50324675633837</v>
       </c>
       <c r="I5" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633837</v>
       </c>
       <c r="J5" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633837</v>
       </c>
       <c r="K5" t="n">
-        <v>135.6402479253952</v>
+        <v>400.4856027838002</v>
       </c>
       <c r="L5" t="n">
-        <v>135.6402479253952</v>
+        <v>893.805894502329</v>
       </c>
       <c r="M5" t="n">
-        <v>673.899032935488</v>
+        <v>1407.408573112016</v>
       </c>
       <c r="N5" t="n">
-        <v>1201.71031657295</v>
+        <v>1407.408573112016</v>
       </c>
       <c r="O5" t="n">
-        <v>1641.749917465278</v>
+        <v>1847.448174004345</v>
       </c>
       <c r="P5" t="n">
-        <v>1989.9374095968</v>
+        <v>1890.31677767597</v>
       </c>
       <c r="Q5" t="n">
-        <v>2174.782969737749</v>
+        <v>2075.162337816918</v>
       </c>
       <c r="R5" t="n">
-        <v>2136.790056023271</v>
+        <v>2075.162337816918</v>
       </c>
       <c r="S5" t="n">
-        <v>1970.276500964321</v>
+        <v>2075.162337816918</v>
       </c>
       <c r="T5" t="n">
-        <v>1746.775898523738</v>
+        <v>2075.162337816918</v>
       </c>
       <c r="U5" t="n">
-        <v>1491.023168958337</v>
+        <v>2075.162337816918</v>
       </c>
       <c r="V5" t="n">
-        <v>1148.916359661855</v>
+        <v>2075.162337816918</v>
       </c>
       <c r="W5" t="n">
-        <v>1148.916359661855</v>
+        <v>2075.162337816918</v>
       </c>
       <c r="X5" t="n">
-        <v>759.4637545949118</v>
+        <v>1685.709732749975</v>
       </c>
       <c r="Y5" t="n">
-        <v>759.4637545949118</v>
+        <v>1570.219717411865</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>655.8134179021438</v>
+        <v>703.1845595088819</v>
       </c>
       <c r="C6" t="n">
-        <v>505.159187462236</v>
+        <v>552.5303290689741</v>
       </c>
       <c r="D6" t="n">
-        <v>375.0702200837163</v>
+        <v>422.4413616904544</v>
       </c>
       <c r="E6" t="n">
-        <v>301.240147710378</v>
+        <v>285.9948708013421</v>
       </c>
       <c r="F6" t="n">
-        <v>301.240147710378</v>
+        <v>161.5630646844739</v>
       </c>
       <c r="G6" t="n">
-        <v>181.1803297822424</v>
+        <v>41.50324675633837</v>
       </c>
       <c r="H6" t="n">
-        <v>92.88291338284338</v>
+        <v>41.50324675633837</v>
       </c>
       <c r="I6" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633837</v>
       </c>
       <c r="J6" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633837</v>
       </c>
       <c r="K6" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633837</v>
       </c>
       <c r="L6" t="n">
-        <v>480.0174418653869</v>
+        <v>41.50324675633837</v>
       </c>
       <c r="M6" t="n">
-        <v>480.0174418653869</v>
+        <v>407.9705203262558</v>
       </c>
       <c r="N6" t="n">
-        <v>1018.27622687548</v>
+        <v>921.5731989359431</v>
       </c>
       <c r="O6" t="n">
-        <v>1534.796509466461</v>
+        <v>1435.17587754563</v>
       </c>
       <c r="P6" t="n">
-        <v>1940.417878182858</v>
+        <v>1840.797246262028</v>
       </c>
       <c r="Q6" t="n">
-        <v>2174.782969737749</v>
+        <v>2075.162337816918</v>
       </c>
       <c r="R6" t="n">
-        <v>2150.865926635813</v>
+        <v>2051.245294714983</v>
       </c>
       <c r="S6" t="n">
-        <v>2015.935249535682</v>
+        <v>1916.314617614852</v>
       </c>
       <c r="T6" t="n">
-        <v>1838.95143773459</v>
+        <v>1886.322579341328</v>
       </c>
       <c r="U6" t="n">
-        <v>1628.888294413232</v>
+        <v>1676.25943601997</v>
       </c>
       <c r="V6" t="n">
-        <v>1406.348292784299</v>
+        <v>1453.719434391037</v>
       </c>
       <c r="W6" t="n">
-        <v>1176.231046917586</v>
+        <v>1223.602188524324</v>
       </c>
       <c r="X6" t="n">
-        <v>986.9239692675978</v>
+        <v>1034.295110874336</v>
       </c>
       <c r="Y6" t="n">
-        <v>807.6097523431051</v>
+        <v>854.9808939498432</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>43.49565939475497</v>
+        <v>211.7083646903492</v>
       </c>
       <c r="C7" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633837</v>
       </c>
       <c r="D7" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633837</v>
       </c>
       <c r="E7" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633837</v>
       </c>
       <c r="F7" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633837</v>
       </c>
       <c r="G7" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633837</v>
       </c>
       <c r="H7" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633837</v>
       </c>
       <c r="I7" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633837</v>
       </c>
       <c r="J7" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633837</v>
       </c>
       <c r="K7" t="n">
-        <v>125.3307005046968</v>
+        <v>123.3382878662802</v>
       </c>
       <c r="L7" t="n">
-        <v>289.4583403784966</v>
+        <v>287.46592774008</v>
       </c>
       <c r="M7" t="n">
-        <v>475.7499187167606</v>
+        <v>473.757506078344</v>
       </c>
       <c r="N7" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095532</v>
       </c>
       <c r="O7" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512612</v>
       </c>
       <c r="P7" t="n">
-        <v>941.5204855662564</v>
+        <v>939.5280729278397</v>
       </c>
       <c r="Q7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978907</v>
       </c>
       <c r="R7" t="n">
-        <v>821.0416925688844</v>
+        <v>819.0492799304677</v>
       </c>
       <c r="S7" t="n">
-        <v>821.0416925688844</v>
+        <v>732.8662082802141</v>
       </c>
       <c r="T7" t="n">
-        <v>818.0258575153864</v>
+        <v>497.1471564484482</v>
       </c>
       <c r="U7" t="n">
-        <v>532.5870657572874</v>
+        <v>211.7083646903492</v>
       </c>
       <c r="V7" t="n">
-        <v>266.6077205781116</v>
+        <v>211.7083646903492</v>
       </c>
       <c r="W7" t="n">
-        <v>266.6077205781116</v>
+        <v>211.7083646903492</v>
       </c>
       <c r="X7" t="n">
-        <v>266.6077205781116</v>
+        <v>211.7083646903492</v>
       </c>
       <c r="Y7" t="n">
-        <v>43.49565939475497</v>
+        <v>211.7083646903492</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>611.6668769506938</v>
+        <v>1399.691530617482</v>
       </c>
       <c r="C8" t="n">
-        <v>611.6668769506938</v>
+        <v>1399.691530617482</v>
       </c>
       <c r="D8" t="n">
-        <v>611.6668769506938</v>
+        <v>1014.250401834149</v>
       </c>
       <c r="E8" t="n">
-        <v>611.6668769506938</v>
+        <v>611.6668769506939</v>
       </c>
       <c r="F8" t="n">
-        <v>194.7724384806716</v>
+        <v>598.8128425210757</v>
       </c>
       <c r="G8" t="n">
         <v>185.6500870090788</v>
@@ -4805,49 +4805,49 @@
         <v>47.31297010154361</v>
       </c>
       <c r="K8" t="n">
-        <v>47.31297010154361</v>
+        <v>406.2953261290054</v>
       </c>
       <c r="L8" t="n">
-        <v>318.7636682303387</v>
+        <v>899.6156178475343</v>
       </c>
       <c r="M8" t="n">
-        <v>864.7645682749193</v>
+        <v>1397.79762054739</v>
       </c>
       <c r="N8" t="n">
-        <v>1392.575851912381</v>
+        <v>1925.608904184852</v>
       </c>
       <c r="O8" t="n">
-        <v>1832.61545280471</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P8" t="n">
-        <v>2180.802944936232</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q8" t="n">
         <v>2365.64850507718</v>
       </c>
       <c r="R8" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S8" t="n">
-        <v>2199.134950018231</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="T8" t="n">
-        <v>2199.134950018231</v>
+        <v>2104.154988922119</v>
       </c>
       <c r="U8" t="n">
-        <v>1943.38222045283</v>
+        <v>1848.402259356717</v>
       </c>
       <c r="V8" t="n">
-        <v>1601.275411156348</v>
+        <v>1848.402259356717</v>
       </c>
       <c r="W8" t="n">
-        <v>1230.276376124636</v>
+        <v>1800.186276328879</v>
       </c>
       <c r="X8" t="n">
-        <v>840.8237710576924</v>
+        <v>1800.186276328879</v>
       </c>
       <c r="Y8" t="n">
-        <v>611.6668769506938</v>
+        <v>1800.186276328879</v>
       </c>
     </row>
     <row r="9">
@@ -4881,13 +4881,13 @@
         <v>47.31297010154367</v>
       </c>
       <c r="J9" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="K9" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="L9" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="M9" t="n">
         <v>623.6437572083089</v>
@@ -4984,28 +4984,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R10" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S10" t="n">
-        <v>622.0429194582225</v>
+        <v>745.9439088256454</v>
       </c>
       <c r="T10" t="n">
-        <v>386.3238676264566</v>
+        <v>745.9439088256454</v>
       </c>
       <c r="U10" t="n">
-        <v>100.8850758683575</v>
+        <v>596.6227173495417</v>
       </c>
       <c r="V10" t="n">
-        <v>100.8850758683575</v>
+        <v>330.643372170366</v>
       </c>
       <c r="W10" t="n">
-        <v>100.8850758683575</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="X10" t="n">
-        <v>100.8850758683575</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y10" t="n">
-        <v>100.8850758683575</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1135.01579512446</v>
+        <v>1751.874884930728</v>
       </c>
       <c r="C11" t="n">
-        <v>813.6365687735845</v>
+        <v>1430.495658579852</v>
       </c>
       <c r="D11" t="n">
-        <v>499.9917151364461</v>
+        <v>1116.850804942714</v>
       </c>
       <c r="E11" t="n">
-        <v>169.2044653991846</v>
+        <v>1067.411388442403</v>
       </c>
       <c r="F11" t="n">
-        <v>169.2044653991846</v>
+        <v>722.313225118575</v>
       </c>
       <c r="G11" t="n">
-        <v>128.659969465457</v>
+        <v>380.9467447527721</v>
       </c>
       <c r="H11" t="n">
-        <v>128.659969465457</v>
+        <v>128.6599694654568</v>
       </c>
       <c r="I11" t="n">
-        <v>62.11912770411573</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J11" t="n">
-        <v>206.7689006129438</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K11" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L11" t="n">
         <v>1059.071548358934</v>
@@ -5078,13 +5078,13 @@
         <v>2405.267789429136</v>
       </c>
       <c r="W11" t="n">
-        <v>2106.065029543617</v>
+        <v>2405.267789429136</v>
       </c>
       <c r="X11" t="n">
-        <v>1788.408699622868</v>
+        <v>2405.267789429136</v>
       </c>
       <c r="Y11" t="n">
-        <v>1463.714265689663</v>
+        <v>2080.573355495931</v>
       </c>
     </row>
     <row r="12">
@@ -5127,7 +5127,7 @@
         <v>62.11912770411553</v>
       </c>
       <c r="M12" t="n">
-        <v>568.1699486069232</v>
+        <v>689.8907773307967</v>
       </c>
       <c r="N12" t="n">
         <v>1223.947919817482</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>103.3140520158411</v>
+        <v>413.6570050786602</v>
       </c>
       <c r="C13" t="n">
-        <v>103.3140520158411</v>
+        <v>315.2481622908433</v>
       </c>
       <c r="D13" t="n">
-        <v>103.3140520158411</v>
+        <v>231.411324339552</v>
       </c>
       <c r="E13" t="n">
-        <v>103.3140520158411</v>
+        <v>147.6487873449485</v>
       </c>
       <c r="F13" t="n">
-        <v>103.3140520158411</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G13" t="n">
         <v>62.11912770411553</v>
@@ -5200,16 +5200,16 @@
         <v>102.7129143774627</v>
       </c>
       <c r="K13" t="n">
-        <v>254.9154847581892</v>
+        <v>254.9154847581893</v>
       </c>
       <c r="L13" t="n">
-        <v>489.4106539027736</v>
+        <v>489.4106539027738</v>
       </c>
       <c r="M13" t="n">
-        <v>746.0697615118222</v>
+        <v>746.0697615118224</v>
       </c>
       <c r="N13" t="n">
-        <v>999.6269248138161</v>
+        <v>999.6269248138163</v>
       </c>
       <c r="O13" t="n">
         <v>1232.699221126309</v>
@@ -5221,28 +5221,28 @@
         <v>1496.732641814508</v>
       </c>
       <c r="R13" t="n">
-        <v>1444.627927593278</v>
+        <v>1444.627927593279</v>
       </c>
       <c r="S13" t="n">
-        <v>1313.608118922022</v>
+        <v>1348.25528136891</v>
       </c>
       <c r="T13" t="n">
-        <v>1149.68534223645</v>
+        <v>1184.332504683338</v>
       </c>
       <c r="U13" t="n">
-        <v>936.0428256245445</v>
+        <v>970.689988071433</v>
       </c>
       <c r="V13" t="n">
-        <v>741.8597555915628</v>
+        <v>776.5069180384512</v>
       </c>
       <c r="W13" t="n">
-        <v>530.3256286689343</v>
+        <v>564.9727911158229</v>
       </c>
       <c r="X13" t="n">
-        <v>368.0415815981113</v>
+        <v>564.9727911158229</v>
       </c>
       <c r="Y13" t="n">
-        <v>216.7257955609485</v>
+        <v>413.6570050786602</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1135.01579512446</v>
+        <v>1434.218555009979</v>
       </c>
       <c r="C14" t="n">
-        <v>813.6365687735847</v>
+        <v>1112.839328659104</v>
       </c>
       <c r="D14" t="n">
-        <v>499.9917151364464</v>
+        <v>799.194475021965</v>
       </c>
       <c r="E14" t="n">
-        <v>380.9467447527722</v>
+        <v>468.4072252847034</v>
       </c>
       <c r="F14" t="n">
-        <v>380.9467447527722</v>
+        <v>403.4856080699185</v>
       </c>
       <c r="G14" t="n">
-        <v>380.9467447527722</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H14" t="n">
-        <v>128.6599694654568</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I14" t="n">
         <v>62.11912770411553</v>
@@ -5282,13 +5282,13 @@
         <v>565.7512566404055</v>
       </c>
       <c r="L14" t="n">
-        <v>1059.071548358934</v>
+        <v>1059.071548358935</v>
       </c>
       <c r="M14" t="n">
         <v>1605.072448403515</v>
       </c>
       <c r="N14" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040978</v>
       </c>
       <c r="O14" t="n">
         <v>2572.923332933306</v>
@@ -5309,19 +5309,19 @@
         <v>2859.534777998631</v>
       </c>
       <c r="U14" t="n">
-        <v>2675.578323579423</v>
+        <v>2675.578323579424</v>
       </c>
       <c r="V14" t="n">
         <v>2405.267789429136</v>
       </c>
       <c r="W14" t="n">
-        <v>2106.065029543617</v>
+        <v>2405.267789429136</v>
       </c>
       <c r="X14" t="n">
-        <v>1788.408699622868</v>
+        <v>2087.611459508387</v>
       </c>
       <c r="Y14" t="n">
-        <v>1463.714265689663</v>
+        <v>1762.917025575182</v>
       </c>
     </row>
     <row r="15">
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>103.3140520158411</v>
+        <v>328.1273454378273</v>
       </c>
       <c r="C16" t="n">
-        <v>103.3140520158411</v>
+        <v>229.7185026500105</v>
       </c>
       <c r="D16" t="n">
-        <v>103.3140520158411</v>
+        <v>145.8816646987191</v>
       </c>
       <c r="E16" t="n">
-        <v>103.3140520158411</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F16" t="n">
-        <v>103.3140520158411</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G16" t="n">
         <v>62.11912770411553</v>
@@ -5434,16 +5434,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J16" t="n">
-        <v>102.7129143774625</v>
+        <v>102.7129143774627</v>
       </c>
       <c r="K16" t="n">
         <v>254.9154847581891</v>
       </c>
       <c r="L16" t="n">
-        <v>489.4106539027736</v>
+        <v>489.4106539027734</v>
       </c>
       <c r="M16" t="n">
-        <v>746.0697615118222</v>
+        <v>746.0697615118221</v>
       </c>
       <c r="N16" t="n">
         <v>999.626924813816</v>
@@ -5458,28 +5458,28 @@
         <v>1496.732641814508</v>
       </c>
       <c r="R16" t="n">
-        <v>1444.627927593278</v>
+        <v>1496.732641814508</v>
       </c>
       <c r="S16" t="n">
-        <v>1313.608118922022</v>
+        <v>1365.712833143251</v>
       </c>
       <c r="T16" t="n">
-        <v>1149.68534223645</v>
+        <v>1365.712833143251</v>
       </c>
       <c r="U16" t="n">
-        <v>936.0428256245448</v>
+        <v>1160.856119046531</v>
       </c>
       <c r="V16" t="n">
-        <v>741.8597555915628</v>
+        <v>966.673049013549</v>
       </c>
       <c r="W16" t="n">
-        <v>530.3256286689343</v>
+        <v>755.1389220909206</v>
       </c>
       <c r="X16" t="n">
-        <v>368.0415815981113</v>
+        <v>592.8548750200976</v>
       </c>
       <c r="Y16" t="n">
-        <v>216.7257955609486</v>
+        <v>441.5390889829347</v>
       </c>
     </row>
     <row r="17">
@@ -5507,7 +5507,7 @@
         <v>261.185821680343</v>
       </c>
       <c r="H17" t="n">
-        <v>68.7795079292421</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I17" t="n">
         <v>62.11912770411553</v>
@@ -5552,7 +5552,7 @@
         <v>2644.789635573994</v>
       </c>
       <c r="W17" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X17" t="n">
         <v>2147.691468840156</v>
@@ -5595,10 +5595,10 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K18" t="n">
-        <v>381.858273766342</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L18" t="n">
-        <v>568.1699486069232</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="M18" t="n">
         <v>568.1699486069232</v>
@@ -5680,19 +5680,19 @@
         <v>308.0818086878572</v>
       </c>
       <c r="M19" t="n">
-        <v>494.3733870261212</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N19" t="n">
-        <v>677.5630210573304</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O19" t="n">
-        <v>840.2677880990384</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P19" t="n">
-        <v>960.1439538756169</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q19" t="n">
-        <v>1090.581152532863</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R19" t="n">
         <v>1098.20216247628</v>
@@ -5726,34 +5726,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414178</v>
       </c>
       <c r="C20" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599517</v>
       </c>
       <c r="D20" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E20" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975456</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G20" t="n">
-        <v>261.1858216803425</v>
+        <v>261.1858216803435</v>
       </c>
       <c r="H20" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924246</v>
       </c>
       <c r="I20" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="J20" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129438</v>
       </c>
       <c r="K20" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L20" t="n">
         <v>1059.071548358934</v>
@@ -5780,10 +5780,10 @@
         <v>3071.119566829235</v>
       </c>
       <c r="T20" t="n">
-        <v>2979.295701071061</v>
+        <v>2979.29570107106</v>
       </c>
       <c r="U20" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188067</v>
       </c>
       <c r="V20" t="n">
         <v>2644.789635573994</v>
@@ -5795,7 +5795,7 @@
         <v>2147.691468840156</v>
       </c>
       <c r="Y20" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="21">
@@ -5829,19 +5829,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J21" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K21" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L21" t="n">
-        <v>545.6852136024288</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M21" t="n">
-        <v>568.1699486069232</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N21" t="n">
-        <v>1223.947919817482</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="O21" t="n">
         <v>1740.468202408463</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885596</v>
       </c>
       <c r="C22" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369573</v>
       </c>
       <c r="D22" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218805</v>
       </c>
       <c r="E22" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634914</v>
       </c>
       <c r="F22" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588728</v>
       </c>
       <c r="G22" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072679</v>
       </c>
       <c r="H22" t="n">
-        <v>63.53681638462917</v>
+        <v>63.5368163846292</v>
       </c>
       <c r="I22" t="n">
         <v>62.11912770411553</v>
@@ -5920,7 +5920,7 @@
         <v>494.3733870261212</v>
       </c>
       <c r="N22" t="n">
-        <v>677.5630210573304</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O22" t="n">
         <v>969.3241577214669</v>
@@ -5929,31 +5929,31 @@
         <v>1089.200323498045</v>
       </c>
       <c r="Q22" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="R22" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S22" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T22" t="n">
-        <v>923.0205001918806</v>
+        <v>923.020500191881</v>
       </c>
       <c r="U22" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161904</v>
       </c>
       <c r="V22" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194231</v>
       </c>
       <c r="W22" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330091</v>
       </c>
       <c r="X22" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984007</v>
       </c>
       <c r="Y22" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974525</v>
       </c>
     </row>
     <row r="23">
@@ -5981,7 +5981,7 @@
         <v>261.185821680343</v>
       </c>
       <c r="H23" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924226</v>
       </c>
       <c r="I23" t="n">
         <v>62.11912770411553</v>
@@ -6014,7 +6014,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S23" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T23" t="n">
         <v>2979.295701071061</v>
@@ -6023,7 +6023,7 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V23" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W23" t="n">
         <v>2405.467337224691</v>
@@ -6032,7 +6032,7 @@
         <v>2147.691468840156</v>
       </c>
       <c r="Y23" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="24">
@@ -6075,16 +6075,16 @@
         <v>494.9732559860694</v>
       </c>
       <c r="M24" t="n">
-        <v>568.1699486069232</v>
+        <v>1122.744905612751</v>
       </c>
       <c r="N24" t="n">
-        <v>1223.947919817482</v>
+        <v>1778.52287682331</v>
       </c>
       <c r="O24" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P24" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q24" t="n">
         <v>2380.454662679751</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885596</v>
       </c>
       <c r="C25" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369573</v>
       </c>
       <c r="D25" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218805</v>
       </c>
       <c r="E25" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634914</v>
       </c>
       <c r="F25" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588728</v>
       </c>
       <c r="G25" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072679</v>
       </c>
       <c r="H25" t="n">
-        <v>63.53681638462917</v>
+        <v>63.5368163846292</v>
       </c>
       <c r="I25" t="n">
         <v>62.11912770411553</v>
@@ -6157,40 +6157,40 @@
         <v>494.3733870261212</v>
       </c>
       <c r="N25" t="n">
-        <v>677.5630210573304</v>
+        <v>804.5780233445259</v>
       </c>
       <c r="O25" t="n">
-        <v>840.2677880990384</v>
+        <v>967.282790386234</v>
       </c>
       <c r="P25" t="n">
-        <v>1087.158956162812</v>
+        <v>1087.158956162813</v>
       </c>
       <c r="Q25" t="n">
         <v>1090.581152532863</v>
       </c>
       <c r="R25" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S25" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T25" t="n">
-        <v>923.0205001918806</v>
+        <v>923.020500191881</v>
       </c>
       <c r="U25" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161904</v>
       </c>
       <c r="V25" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194231</v>
       </c>
       <c r="W25" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330091</v>
       </c>
       <c r="X25" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984007</v>
       </c>
       <c r="Y25" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974525</v>
       </c>
     </row>
     <row r="26">
@@ -6200,28 +6200,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1882.457606424153</v>
+        <v>1882.457606424152</v>
       </c>
       <c r="C26" t="n">
-        <v>1584.222786214272</v>
+        <v>1584.222786214271</v>
       </c>
       <c r="D26" t="n">
-        <v>1293.722338718127</v>
+        <v>1293.722338718128</v>
       </c>
       <c r="E26" t="n">
-        <v>986.0794951218602</v>
+        <v>986.0794951218604</v>
       </c>
       <c r="F26" t="n">
-        <v>664.1257379390263</v>
+        <v>664.1257379390265</v>
       </c>
       <c r="G26" t="n">
-        <v>345.9036637142178</v>
+        <v>345.9036637142181</v>
       </c>
       <c r="H26" t="n">
-        <v>116.7612945678971</v>
+        <v>116.761294567897</v>
       </c>
       <c r="I26" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J26" t="n">
         <v>311.0659935859517</v>
@@ -6233,43 +6233,43 @@
         <v>1256.420003061516</v>
       </c>
       <c r="M26" t="n">
-        <v>1895.47226483567</v>
+        <v>1832.390418388517</v>
       </c>
       <c r="N26" t="n">
-        <v>2423.283548473132</v>
+        <v>2453.253063755553</v>
       </c>
       <c r="O26" t="n">
-        <v>2893.292664647883</v>
+        <v>2986.344026377455</v>
       </c>
       <c r="P26" t="n">
-        <v>3334.531518508978</v>
+        <v>3334.531518508977</v>
       </c>
       <c r="Q26" t="n">
-        <v>3612.4284403795</v>
+        <v>3612.428440379499</v>
       </c>
       <c r="R26" t="n">
-        <v>3668.242947377513</v>
+        <v>3668.242947377512</v>
       </c>
       <c r="S26" t="n">
-        <v>3596.670073605752</v>
+        <v>3596.670073605751</v>
       </c>
       <c r="T26" t="n">
-        <v>3468.110152452357</v>
+        <v>3468.110152452356</v>
       </c>
       <c r="U26" t="n">
-        <v>3307.298104174144</v>
+        <v>3307.298104174143</v>
       </c>
       <c r="V26" t="n">
-        <v>3060.131976164851</v>
+        <v>3060.13197616485</v>
       </c>
       <c r="W26" t="n">
-        <v>2784.073622420327</v>
+        <v>2784.073622420326</v>
       </c>
       <c r="X26" t="n">
-        <v>2489.561698640572</v>
+        <v>2489.561698640571</v>
       </c>
       <c r="Y26" t="n">
-        <v>2188.011670848362</v>
+        <v>2188.011670848361</v>
       </c>
     </row>
     <row r="27">
@@ -6297,31 +6297,31 @@
         <v>211.0495293350377</v>
       </c>
       <c r="H27" t="n">
-        <v>122.7521129356387</v>
+        <v>122.7521129356386</v>
       </c>
       <c r="I27" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J27" t="n">
-        <v>73.36485894755026</v>
+        <v>186.4798411672776</v>
       </c>
       <c r="K27" t="n">
-        <v>73.36485894755026</v>
+        <v>186.4798411672776</v>
       </c>
       <c r="L27" t="n">
-        <v>73.36485894755026</v>
+        <v>670.0459270655908</v>
       </c>
       <c r="M27" t="n">
-        <v>579.4156798503576</v>
+        <v>1219.402140121646</v>
       </c>
       <c r="N27" t="n">
-        <v>1235.193651060917</v>
+        <v>1875.180111332205</v>
       </c>
       <c r="O27" t="n">
-        <v>1751.713933651898</v>
+        <v>2391.700393923186</v>
       </c>
       <c r="P27" t="n">
-        <v>2157.335302368295</v>
+        <v>2391.700393923186</v>
       </c>
       <c r="Q27" t="n">
         <v>2391.700393923186</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>504.330098198535</v>
+        <v>504.3300981985351</v>
       </c>
       <c r="C28" t="n">
-        <v>429.0656615517126</v>
+        <v>429.065661551713</v>
       </c>
       <c r="D28" t="n">
-        <v>368.3732297414157</v>
+        <v>368.3732297414161</v>
       </c>
       <c r="E28" t="n">
-        <v>307.7550988878065</v>
+        <v>307.7550988878066</v>
       </c>
       <c r="F28" t="n">
-        <v>245.3698453879678</v>
+        <v>245.369845387968</v>
       </c>
       <c r="G28" t="n">
-        <v>172.0564727746017</v>
+        <v>172.056472774602</v>
       </c>
       <c r="H28" t="n">
-        <v>111.518603023284</v>
+        <v>111.5186030232841</v>
       </c>
       <c r="I28" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J28" t="n">
-        <v>136.642478079686</v>
+        <v>136.6424780796862</v>
       </c>
       <c r="K28" t="n">
-        <v>311.5288809192011</v>
+        <v>311.5288809192012</v>
       </c>
       <c r="L28" t="n">
-        <v>568.7078825225742</v>
+        <v>568.7078825225741</v>
       </c>
       <c r="M28" t="n">
-        <v>848.0508225904116</v>
+        <v>848.0508225904113</v>
       </c>
       <c r="N28" t="n">
         <v>1124.291818351194</v>
@@ -6421,13 +6421,13 @@
         <v>1050.298177210279</v>
       </c>
       <c r="W28" t="n">
-        <v>861.9084564286447</v>
+        <v>861.908456428645</v>
       </c>
       <c r="X28" t="n">
-        <v>722.7688154988163</v>
+        <v>722.7688154988164</v>
       </c>
       <c r="Y28" t="n">
-        <v>594.5974356026479</v>
+        <v>594.597435602648</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1882.457606424152</v>
+        <v>1882.457606424153</v>
       </c>
       <c r="C29" t="n">
-        <v>1584.222786214271</v>
+        <v>1584.222786214272</v>
       </c>
       <c r="D29" t="n">
-        <v>1293.722338718127</v>
+        <v>1293.722338718128</v>
       </c>
       <c r="E29" t="n">
-        <v>986.0794951218602</v>
+        <v>986.0794951218604</v>
       </c>
       <c r="F29" t="n">
-        <v>664.1257379390263</v>
+        <v>664.1257379390265</v>
       </c>
       <c r="G29" t="n">
-        <v>345.9036637142178</v>
+        <v>345.9036637142181</v>
       </c>
       <c r="H29" t="n">
         <v>116.7612945678971</v>
@@ -6461,25 +6461,25 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J29" t="n">
-        <v>218.0146318563784</v>
+        <v>311.0659935859517</v>
       </c>
       <c r="K29" t="n">
-        <v>670.0483496134135</v>
+        <v>763.0997113429868</v>
       </c>
       <c r="L29" t="n">
         <v>1256.420003061516</v>
       </c>
       <c r="M29" t="n">
-        <v>1888.204925386532</v>
+        <v>1802.420903106096</v>
       </c>
       <c r="N29" t="n">
-        <v>2509.067570753567</v>
+        <v>2423.283548473132</v>
       </c>
       <c r="O29" t="n">
-        <v>3042.158533375469</v>
+        <v>2956.374511095034</v>
       </c>
       <c r="P29" t="n">
-        <v>3390.346025506991</v>
+        <v>3397.613364956129</v>
       </c>
       <c r="Q29" t="n">
         <v>3668.242947377513</v>
@@ -6491,22 +6491,22 @@
         <v>3596.670073605752</v>
       </c>
       <c r="T29" t="n">
-        <v>3468.110152452356</v>
+        <v>3468.110152452357</v>
       </c>
       <c r="U29" t="n">
-        <v>3307.298104174143</v>
+        <v>3307.298104174144</v>
       </c>
       <c r="V29" t="n">
-        <v>3060.13197616485</v>
+        <v>3060.131976164851</v>
       </c>
       <c r="W29" t="n">
-        <v>2784.073622420326</v>
+        <v>2784.073622420327</v>
       </c>
       <c r="X29" t="n">
-        <v>2489.561698640571</v>
+        <v>2489.561698640572</v>
       </c>
       <c r="Y29" t="n">
-        <v>2188.01167084836</v>
+        <v>2188.011670848361</v>
       </c>
     </row>
     <row r="30">
@@ -6540,13 +6540,13 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J30" t="n">
-        <v>73.36485894755026</v>
+        <v>186.4798411672776</v>
       </c>
       <c r="K30" t="n">
-        <v>73.36485894755026</v>
+        <v>506.2189872295041</v>
       </c>
       <c r="L30" t="n">
-        <v>73.36485894755026</v>
+        <v>579.4156798503576</v>
       </c>
       <c r="M30" t="n">
         <v>579.4156798503576</v>
@@ -6595,43 +6595,43 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>504.3300981985345</v>
+        <v>504.3300981985352</v>
       </c>
       <c r="C31" t="n">
-        <v>429.0656615517122</v>
+        <v>429.0656615517128</v>
       </c>
       <c r="D31" t="n">
-        <v>368.3732297414155</v>
+        <v>368.3732297414156</v>
       </c>
       <c r="E31" t="n">
-        <v>307.7550988878064</v>
+        <v>307.7550988878068</v>
       </c>
       <c r="F31" t="n">
-        <v>245.3698453879678</v>
+        <v>245.3698453879681</v>
       </c>
       <c r="G31" t="n">
-        <v>172.0564727746017</v>
+        <v>172.056472774602</v>
       </c>
       <c r="H31" t="n">
-        <v>111.518603023284</v>
+        <v>111.5186030232843</v>
       </c>
       <c r="I31" t="n">
         <v>73.36485894755026</v>
       </c>
       <c r="J31" t="n">
-        <v>136.6424780796859</v>
+        <v>136.6424780796861</v>
       </c>
       <c r="K31" t="n">
-        <v>311.5288809192008</v>
+        <v>311.5288809192012</v>
       </c>
       <c r="L31" t="n">
-        <v>568.7078825225736</v>
+        <v>568.7078825225741</v>
       </c>
       <c r="M31" t="n">
-        <v>848.050822590411</v>
+        <v>848.0508225904115</v>
       </c>
       <c r="N31" t="n">
-        <v>1124.291818351193</v>
+        <v>1124.291818351194</v>
       </c>
       <c r="O31" t="n">
         <v>1380.047947122475</v>
@@ -6643,28 +6643,28 @@
         <v>1689.449032728251</v>
       </c>
       <c r="R31" t="n">
-        <v>1660.488724648016</v>
+        <v>1660.488724648017</v>
       </c>
       <c r="S31" t="n">
         <v>1552.613322117754</v>
       </c>
       <c r="T31" t="n">
-        <v>1411.834951573176</v>
+        <v>1411.834951573177</v>
       </c>
       <c r="U31" t="n">
         <v>1221.336841102266</v>
       </c>
       <c r="V31" t="n">
-        <v>1050.298177210278</v>
+        <v>1050.298177210279</v>
       </c>
       <c r="W31" t="n">
-        <v>861.9084564286443</v>
+        <v>861.908456428645</v>
       </c>
       <c r="X31" t="n">
-        <v>722.7688154988158</v>
+        <v>722.7688154988165</v>
       </c>
       <c r="Y31" t="n">
-        <v>594.5974356026475</v>
+        <v>594.5974356026481</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1791.35112422213</v>
+        <v>1743.798875918588</v>
       </c>
       <c r="C32" t="n">
-        <v>1505.586185654425</v>
+        <v>1464.542485303044</v>
       </c>
       <c r="D32" t="n">
-        <v>1227.555619800458</v>
+        <v>1193.020467401237</v>
       </c>
       <c r="E32" t="n">
-        <v>932.3826578463668</v>
+        <v>904.3560533993073</v>
       </c>
       <c r="F32" t="n">
-        <v>622.8987823057091</v>
+        <v>601.3807258108104</v>
       </c>
       <c r="G32" t="n">
-        <v>317.1465897230769</v>
+        <v>302.137081180339</v>
       </c>
       <c r="H32" t="n">
-        <v>100.4741022189323</v>
+        <v>91.97314162835471</v>
       </c>
       <c r="I32" t="n">
-        <v>69.54754824076164</v>
+        <v>67.55513560234502</v>
       </c>
       <c r="J32" t="n">
-        <v>214.1973211495898</v>
+        <v>212.2049085111731</v>
       </c>
       <c r="K32" t="n">
-        <v>678.4527699041217</v>
+        <v>571.187264538635</v>
       </c>
       <c r="L32" t="n">
-        <v>1171.773061622651</v>
+        <v>1064.507556257164</v>
       </c>
       <c r="M32" t="n">
-        <v>1717.773961667231</v>
+        <v>1722.160576876727</v>
       </c>
       <c r="N32" t="n">
-        <v>2350.858338031763</v>
+        <v>2361.623981089173</v>
       </c>
       <c r="O32" t="n">
-        <v>2790.897938924092</v>
+        <v>2844.72372784478</v>
       </c>
       <c r="P32" t="n">
-        <v>3139.085431055613</v>
+        <v>3192.911219976302</v>
       </c>
       <c r="Q32" t="n">
-        <v>3429.204083923632</v>
+        <v>3377.756780117251</v>
       </c>
       <c r="R32" t="n">
-        <v>3477.377412038082</v>
+        <v>3377.756780117251</v>
       </c>
       <c r="S32" t="n">
-        <v>3418.274419908497</v>
+        <v>3325.162335939827</v>
       </c>
       <c r="T32" t="n">
-        <v>3302.184380397278</v>
+        <v>3215.58084438077</v>
       </c>
       <c r="U32" t="n">
-        <v>3153.842213761241</v>
+        <v>3073.747225696894</v>
       </c>
       <c r="V32" t="n">
-        <v>2919.145967394124</v>
+        <v>2845.559527281937</v>
       </c>
       <c r="W32" t="n">
-        <v>2655.557495291776</v>
+        <v>2588.47960313175</v>
       </c>
       <c r="X32" t="n">
-        <v>2373.515453154197</v>
+        <v>2312.946108946332</v>
       </c>
       <c r="Y32" t="n">
-        <v>2084.435307004162</v>
+        <v>2030.374510748459</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>868.9135313807926</v>
+        <v>866.9211187423759</v>
       </c>
       <c r="C33" t="n">
-        <v>718.2593009408848</v>
+        <v>716.2668883024681</v>
       </c>
       <c r="D33" t="n">
-        <v>588.1703335623652</v>
+        <v>586.1779209239485</v>
       </c>
       <c r="E33" t="n">
-        <v>451.7238426732529</v>
+        <v>449.7314300348363</v>
       </c>
       <c r="F33" t="n">
-        <v>327.2920365563847</v>
+        <v>325.2996239179681</v>
       </c>
       <c r="G33" t="n">
-        <v>207.2322186282491</v>
+        <v>205.2398059898325</v>
       </c>
       <c r="H33" t="n">
-        <v>118.9348022288501</v>
+        <v>116.9423895904334</v>
       </c>
       <c r="I33" t="n">
-        <v>69.54754824076164</v>
+        <v>67.55513560234502</v>
       </c>
       <c r="J33" t="n">
-        <v>69.54754824076164</v>
+        <v>67.55513560234502</v>
       </c>
       <c r="K33" t="n">
-        <v>69.54754824076164</v>
+        <v>67.55513560234502</v>
       </c>
       <c r="L33" t="n">
-        <v>69.54754824076164</v>
+        <v>67.55513560234502</v>
       </c>
       <c r="M33" t="n">
-        <v>575.5983691435694</v>
+        <v>573.6059565051527</v>
       </c>
       <c r="N33" t="n">
-        <v>1231.376340354128</v>
+        <v>1229.383927715712</v>
       </c>
       <c r="O33" t="n">
-        <v>1747.89662294511</v>
+        <v>1745.904210306693</v>
       </c>
       <c r="P33" t="n">
-        <v>2153.517991661507</v>
+        <v>2151.52557902309</v>
       </c>
       <c r="Q33" t="n">
-        <v>2387.883083216398</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="R33" t="n">
-        <v>2363.966040114462</v>
+        <v>2361.973627476045</v>
       </c>
       <c r="S33" t="n">
-        <v>2229.035363014331</v>
+        <v>2227.042950375914</v>
       </c>
       <c r="T33" t="n">
-        <v>2052.051551213239</v>
+        <v>2050.059138574823</v>
       </c>
       <c r="U33" t="n">
-        <v>1841.988407891881</v>
+        <v>1839.995995253464</v>
       </c>
       <c r="V33" t="n">
-        <v>1619.448406262948</v>
+        <v>1617.455993624531</v>
       </c>
       <c r="W33" t="n">
-        <v>1389.331160396235</v>
+        <v>1387.338747757818</v>
       </c>
       <c r="X33" t="n">
-        <v>1200.024082746247</v>
+        <v>1198.03167010783</v>
       </c>
       <c r="Y33" t="n">
-        <v>1020.709865821754</v>
+        <v>1018.717453183337</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>413.223615996513</v>
+        <v>365.6713676929697</v>
       </c>
       <c r="C34" t="n">
-        <v>350.4290609918668</v>
+        <v>309.3853606404845</v>
       </c>
       <c r="D34" t="n">
-        <v>302.206510823746</v>
+        <v>267.6713584245247</v>
       </c>
       <c r="E34" t="n">
-        <v>254.0582616123131</v>
+        <v>226.0316571652527</v>
       </c>
       <c r="F34" t="n">
-        <v>204.1428897546506</v>
+        <v>182.6248332597511</v>
       </c>
       <c r="G34" t="n">
-        <v>143.2993987834607</v>
+        <v>128.2898902407222</v>
       </c>
       <c r="H34" t="n">
-        <v>95.23141067431919</v>
+        <v>86.73045008374164</v>
       </c>
       <c r="I34" t="n">
-        <v>69.54754824076164</v>
+        <v>67.55513560234502</v>
       </c>
       <c r="J34" t="n">
-        <v>69.54754824076164</v>
+        <v>143.58105160715</v>
       </c>
       <c r="K34" t="n">
-        <v>151.3825893507035</v>
+        <v>225.4160927170919</v>
       </c>
       <c r="L34" t="n">
-        <v>409.5369032805523</v>
+        <v>389.5437325908917</v>
       </c>
       <c r="M34" t="n">
-        <v>595.8284816188163</v>
+        <v>687.4874315041388</v>
       </c>
       <c r="N34" t="n">
-        <v>884.2912083770957</v>
+        <v>982.3291861103312</v>
       </c>
       <c r="O34" t="n">
-        <v>1152.269068145874</v>
+        <v>1256.686073727022</v>
       </c>
       <c r="P34" t="n">
-        <v>1377.418326649523</v>
+        <v>1376.562239503601</v>
       </c>
       <c r="Q34" t="n">
-        <v>1486.113615746644</v>
+        <v>1379.984435873652</v>
       </c>
       <c r="R34" t="n">
-        <v>1469.623189308585</v>
+        <v>1370.002557387754</v>
       </c>
       <c r="S34" t="n">
-        <v>1374.217668420499</v>
+        <v>1281.105584451829</v>
       </c>
       <c r="T34" t="n">
-        <v>1245.909179518098</v>
+        <v>1159.305643501589</v>
       </c>
       <c r="U34" t="n">
-        <v>1067.880950689363</v>
+        <v>987.7859626250153</v>
       </c>
       <c r="V34" t="n">
-        <v>909.312168439552</v>
+        <v>835.725728327365</v>
       </c>
       <c r="W34" t="n">
-        <v>733.3923293000942</v>
+        <v>666.3144371400681</v>
       </c>
       <c r="X34" t="n">
-        <v>606.7225700124418</v>
+        <v>546.1532258045767</v>
       </c>
       <c r="Y34" t="n">
-        <v>491.0210717584497</v>
+        <v>436.9602755027455</v>
       </c>
     </row>
     <row r="35">
@@ -6911,28 +6911,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1614.059487414178</v>
+        <v>1614.059487414176</v>
       </c>
       <c r="C35" t="n">
         <v>1352.560722599516</v>
       </c>
       <c r="D35" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E35" t="n">
-        <v>827.8895422975456</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F35" t="n">
-        <v>542.6718405099318</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G35" t="n">
-        <v>261.1858216803435</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H35" t="n">
         <v>68.77950792924223</v>
       </c>
       <c r="I35" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J35" t="n">
         <v>206.7689006129436</v>
@@ -6953,7 +6953,7 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P35" t="n">
-        <v>2921.110825064828</v>
+        <v>2921.110825064827</v>
       </c>
       <c r="Q35" t="n">
         <v>3105.956385205776</v>
@@ -6962,10 +6962,10 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S35" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T35" t="n">
-        <v>2979.295701071061</v>
+        <v>2979.29570107106</v>
       </c>
       <c r="U35" t="n">
         <v>2855.219708188068</v>
@@ -6974,10 +6974,10 @@
         <v>2644.789635573994</v>
       </c>
       <c r="W35" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X35" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y35" t="n">
         <v>1882.877496443165</v>
@@ -7011,19 +7011,19 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I36" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J36" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K36" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L36" t="n">
-        <v>545.6852136024288</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="M36" t="n">
-        <v>568.1699486069232</v>
+        <v>803.0057595505241</v>
       </c>
       <c r="N36" t="n">
         <v>1223.947919817482</v>
@@ -7084,37 +7084,37 @@
         <v>123.9159479588727</v>
       </c>
       <c r="G37" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072671</v>
       </c>
       <c r="H37" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462916</v>
       </c>
       <c r="I37" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J37" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="K37" t="n">
         <v>143.9541688140574</v>
       </c>
       <c r="L37" t="n">
-        <v>308.0818086878572</v>
+        <v>437.1381783102856</v>
       </c>
       <c r="M37" t="n">
-        <v>494.3733870261212</v>
+        <v>623.4297566485496</v>
       </c>
       <c r="N37" t="n">
-        <v>677.5630210573304</v>
+        <v>812.1990332879427</v>
       </c>
       <c r="O37" t="n">
-        <v>967.2827903862335</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P37" t="n">
-        <v>1087.158956162812</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q37" t="n">
-        <v>1090.581152532863</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R37" t="n">
         <v>1098.20216247628</v>
@@ -7138,7 +7138,7 @@
         <v>380.8985856984004</v>
       </c>
       <c r="Y37" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974522</v>
       </c>
     </row>
     <row r="38">
@@ -7151,19 +7151,19 @@
         <v>1614.059487414177</v>
       </c>
       <c r="C38" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D38" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E38" t="n">
-        <v>827.8895422975456</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F38" t="n">
-        <v>542.6718405099318</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G38" t="n">
-        <v>261.1858216803435</v>
+        <v>261.1858216803425</v>
       </c>
       <c r="H38" t="n">
         <v>68.77950792924223</v>
@@ -7211,13 +7211,13 @@
         <v>2644.789635573994</v>
       </c>
       <c r="W38" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X38" t="n">
         <v>2147.691468840156</v>
       </c>
       <c r="Y38" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="39">
@@ -7254,13 +7254,13 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K39" t="n">
-        <v>62.11912770411553</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L39" t="n">
-        <v>62.11912770411553</v>
+        <v>381.858273766342</v>
       </c>
       <c r="M39" t="n">
-        <v>568.1699486069232</v>
+        <v>1009.629923393023</v>
       </c>
       <c r="N39" t="n">
         <v>1223.947919817482</v>
@@ -7333,19 +7333,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K40" t="n">
-        <v>149.5338114222411</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L40" t="n">
-        <v>313.6614512960409</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M40" t="n">
-        <v>499.953029634305</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N40" t="n">
-        <v>683.1426636655142</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O40" t="n">
-        <v>974.9038003296507</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P40" t="n">
         <v>1094.779966106229</v>
@@ -7388,22 +7388,22 @@
         <v>1614.059487414177</v>
       </c>
       <c r="C41" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D41" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E41" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F41" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G41" t="n">
-        <v>261.1858216803425</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H41" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924224</v>
       </c>
       <c r="I41" t="n">
         <v>62.11912770411553</v>
@@ -7433,10 +7433,10 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R41" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S41" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T41" t="n">
         <v>2979.295701071061</v>
@@ -7448,7 +7448,7 @@
         <v>2644.789635573994</v>
       </c>
       <c r="W41" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X41" t="n">
         <v>2147.691468840156</v>
@@ -7488,19 +7488,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J42" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K42" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L42" t="n">
-        <v>62.11912770411553</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M42" t="n">
-        <v>689.8907773307967</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N42" t="n">
-        <v>1223.947919817482</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="O42" t="n">
         <v>1740.468202408463</v>
@@ -7561,7 +7561,7 @@
         <v>87.33863074072673</v>
       </c>
       <c r="H43" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462918</v>
       </c>
       <c r="I43" t="n">
         <v>62.11912770411553</v>
@@ -7573,16 +7573,16 @@
         <v>143.9541688140574</v>
       </c>
       <c r="L43" t="n">
-        <v>308.0818086878572</v>
+        <v>313.6614512960409</v>
       </c>
       <c r="M43" t="n">
-        <v>494.3733870261212</v>
+        <v>499.953029634305</v>
       </c>
       <c r="N43" t="n">
-        <v>683.1426636655142</v>
+        <v>812.1990332879427</v>
       </c>
       <c r="O43" t="n">
-        <v>845.8474307072222</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P43" t="n">
         <v>1094.779966106229</v>
@@ -7622,25 +7622,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414176</v>
       </c>
       <c r="C44" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D44" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498591</v>
       </c>
       <c r="E44" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975446</v>
       </c>
       <c r="F44" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G44" t="n">
         <v>261.185821680343</v>
       </c>
       <c r="H44" t="n">
-        <v>68.77950792924226</v>
+        <v>68.77950792924214</v>
       </c>
       <c r="I44" t="n">
         <v>62.11912770411553</v>
@@ -7673,25 +7673,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S44" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829234</v>
       </c>
       <c r="T44" t="n">
-        <v>2979.295701071061</v>
+        <v>2979.29570107106</v>
       </c>
       <c r="U44" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188067</v>
       </c>
       <c r="V44" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W44" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.467337224689</v>
       </c>
       <c r="X44" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y44" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443164</v>
       </c>
     </row>
     <row r="45">
@@ -7728,19 +7728,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K45" t="n">
-        <v>62.11912770411553</v>
+        <v>378.9738643893075</v>
       </c>
       <c r="L45" t="n">
-        <v>62.11912770411553</v>
+        <v>862.5399502876207</v>
       </c>
       <c r="M45" t="n">
-        <v>568.1699486069232</v>
+        <v>1490.311599914302</v>
       </c>
       <c r="N45" t="n">
-        <v>1223.947919817482</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="O45" t="n">
-        <v>1740.468202408463</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="P45" t="n">
         <v>2146.089571124861</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>235.9319791885596</v>
+        <v>235.9319791885588</v>
       </c>
       <c r="C46" t="n">
-        <v>197.4035979369573</v>
+        <v>197.4035979369566</v>
       </c>
       <c r="D46" t="n">
-        <v>173.4472215218805</v>
+        <v>173.4472215218799</v>
       </c>
       <c r="E46" t="n">
-        <v>149.5651460634914</v>
+        <v>149.5651460634909</v>
       </c>
       <c r="F46" t="n">
-        <v>123.9159479588728</v>
+        <v>123.9159479588725</v>
       </c>
       <c r="G46" t="n">
-        <v>87.33863074072679</v>
+        <v>87.33863074072654</v>
       </c>
       <c r="H46" t="n">
-        <v>63.5368163846292</v>
+        <v>63.53681638462908</v>
       </c>
       <c r="I46" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J46" t="n">
-        <v>62.11912770411553</v>
+        <v>67.69877031229811</v>
       </c>
       <c r="K46" t="n">
-        <v>143.9541688140574</v>
+        <v>278.5901810446686</v>
       </c>
       <c r="L46" t="n">
-        <v>308.0818086878572</v>
+        <v>442.7178209184684</v>
       </c>
       <c r="M46" t="n">
-        <v>494.3733870261212</v>
+        <v>629.0093992567324</v>
       </c>
       <c r="N46" t="n">
-        <v>677.5630210573304</v>
+        <v>812.1990332879416</v>
       </c>
       <c r="O46" t="n">
-        <v>969.3241577214669</v>
+        <v>974.9038003296496</v>
       </c>
       <c r="P46" t="n">
-        <v>1094.77996610623</v>
+        <v>1094.779966106228</v>
       </c>
       <c r="Q46" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.202162476279</v>
       </c>
       <c r="R46" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.202162476279</v>
       </c>
       <c r="S46" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341237</v>
       </c>
       <c r="T46" t="n">
-        <v>923.020500191881</v>
+        <v>923.0205001918796</v>
       </c>
       <c r="U46" t="n">
-        <v>769.2584451161904</v>
+        <v>769.258445116189</v>
       </c>
       <c r="V46" t="n">
-        <v>634.9558366194231</v>
+        <v>634.9558366194218</v>
       </c>
       <c r="W46" t="n">
-        <v>483.3021712330091</v>
+        <v>483.302171233008</v>
       </c>
       <c r="X46" t="n">
-        <v>380.8985856984007</v>
+        <v>380.8985856983996</v>
       </c>
       <c r="Y46" t="n">
-        <v>289.4632611974525</v>
+        <v>289.4632611974515</v>
       </c>
     </row>
   </sheetData>
@@ -7979,16 +7979,16 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K2" t="n">
-        <v>143.0584031792374</v>
+        <v>176.7766664887391</v>
       </c>
       <c r="L2" t="n">
-        <v>651.5514946987026</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M2" t="n">
-        <v>288.1928110140951</v>
+        <v>668.5156360519568</v>
       </c>
       <c r="N2" t="n">
-        <v>682.2612020826953</v>
+        <v>667.9090757920137</v>
       </c>
       <c r="O2" t="n">
         <v>594.0482827698827</v>
@@ -8064,13 +8064,13 @@
         <v>90.06034685691823</v>
       </c>
       <c r="M3" t="n">
-        <v>636.0828644837491</v>
+        <v>462.5560852512488</v>
       </c>
       <c r="N3" t="n">
-        <v>526.3032062588454</v>
+        <v>604.1626973083962</v>
       </c>
       <c r="O3" t="n">
-        <v>614.4252180716981</v>
+        <v>611.4781433431185</v>
       </c>
       <c r="P3" t="n">
         <v>496.801919078302</v>
@@ -8216,22 +8216,22 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K5" t="n">
-        <v>236.133745129379</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L5" t="n">
-        <v>153.2481697304917</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M5" t="n">
-        <v>693.4207940321644</v>
+        <v>668.5156360519568</v>
       </c>
       <c r="N5" t="n">
-        <v>682.2612020826953</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O5" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P5" t="n">
-        <v>502.0059847475129</v>
+        <v>193.6030671112536</v>
       </c>
       <c r="Q5" t="n">
         <v>331.2113854294513</v>
@@ -8298,16 +8298,16 @@
         <v>89.59693533333335</v>
       </c>
       <c r="L6" t="n">
-        <v>530.9914402615969</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M6" t="n">
-        <v>92.38712204931191</v>
+        <v>462.5560852512488</v>
       </c>
       <c r="N6" t="n">
-        <v>629.0678552886038</v>
+        <v>604.1626973083962</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>611.4781433431185</v>
       </c>
       <c r="P6" t="n">
         <v>496.801919078302</v>
@@ -8453,13 +8453,13 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K8" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L8" t="n">
-        <v>427.440794103012</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M8" t="n">
-        <v>701.2411122488187</v>
+        <v>652.9391957389953</v>
       </c>
       <c r="N8" t="n">
         <v>682.2612020826953</v>
@@ -8468,10 +8468,10 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P8" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q8" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R8" t="n">
         <v>102.5176150018526</v>
@@ -8538,7 +8538,7 @@
         <v>90.06034685691823</v>
       </c>
       <c r="M9" t="n">
-        <v>674.5394322581658</v>
+        <v>674.5394322581657</v>
       </c>
       <c r="N9" t="n">
         <v>676.7842391234617</v>
@@ -8775,10 +8775,10 @@
         <v>90.06034685691823</v>
       </c>
       <c r="M12" t="n">
-        <v>603.5495674056833</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N12" t="n">
-        <v>747.7741039759435</v>
+        <v>624.8237719316268</v>
       </c>
       <c r="O12" t="n">
         <v>614.4252180716981</v>
@@ -9243,13 +9243,13 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K18" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L18" t="n">
-        <v>278.2539578070002</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M18" t="n">
-        <v>92.38712204931191</v>
+        <v>603.5495674056833</v>
       </c>
       <c r="N18" t="n">
         <v>747.7741039759435</v>
@@ -9477,22 +9477,22 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K21" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L21" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>115.0989755892052</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N21" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O21" t="n">
-        <v>614.4252180716981</v>
+        <v>228.1998931286865</v>
       </c>
       <c r="P21" t="n">
         <v>496.801919078302</v>
@@ -9723,19 +9723,19 @@
         <v>90.06034685691823</v>
       </c>
       <c r="M24" t="n">
-        <v>166.3231752016895</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N24" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O24" t="n">
-        <v>614.4252180716981</v>
+        <v>290.9809095353983</v>
       </c>
       <c r="P24" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q24" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R24" t="n">
         <v>71.01380490566048</v>
@@ -9951,16 +9951,16 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K27" t="n">
         <v>89.59693533333335</v>
       </c>
       <c r="L27" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>603.549567405683</v>
+        <v>647.2923877624988</v>
       </c>
       <c r="N27" t="n">
         <v>747.7741039759435</v>
@@ -9969,10 +9969,10 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P27" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q27" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R27" t="n">
         <v>71.01380490566048</v>
@@ -10188,16 +10188,16 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K30" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L30" t="n">
-        <v>90.06034685691823</v>
+        <v>163.9964000092955</v>
       </c>
       <c r="M30" t="n">
-        <v>603.549567405683</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N30" t="n">
         <v>747.7741039759435</v>
@@ -10662,19 +10662,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K36" t="n">
         <v>89.59693533333335</v>
       </c>
       <c r="L36" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M36" t="n">
-        <v>115.0989755892052</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N36" t="n">
-        <v>747.7741039759435</v>
+        <v>510.5662141339224</v>
       </c>
       <c r="O36" t="n">
         <v>614.4252180716981</v>
@@ -10902,16 +10902,16 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K39" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L39" t="n">
         <v>90.06034685691823</v>
       </c>
       <c r="M39" t="n">
-        <v>603.5495674056833</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N39" t="n">
-        <v>747.7741039759435</v>
+        <v>301.8549375253374</v>
       </c>
       <c r="O39" t="n">
         <v>614.4252180716981</v>
@@ -11136,22 +11136,22 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K42" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L42" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N42" t="n">
-        <v>624.8237719316268</v>
+        <v>220.8844470939643</v>
       </c>
       <c r="O42" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P42" t="n">
         <v>496.801919078302</v>
@@ -11376,22 +11376,22 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K45" t="n">
-        <v>89.59693533333335</v>
+        <v>409.6522249143353</v>
       </c>
       <c r="L45" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>603.5495674056833</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N45" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O45" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P45" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q45" t="n">
         <v>327.7205688679246</v>
@@ -23264,16 +23264,16 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>278.5343549045811</v>
       </c>
       <c r="F11" t="n">
-        <v>341.6471816905901</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>297.8137645877546</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>249.7639075344423</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23318,10 +23318,10 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>296.2107322866634</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>314.4797666215417</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>112.2776261096563</v>
       </c>
       <c r="C13" t="n">
-        <v>97.42475435993872</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>82.99846957177844</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>82.92491162465755</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>84.67436304442482</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>54.71022589820864</v>
+        <v>95.4932009668169</v>
       </c>
       <c r="H13" t="n">
-        <v>82.845453133389</v>
+        <v>82.84545313338894</v>
       </c>
       <c r="I13" t="n">
-        <v>60.68516871456093</v>
+        <v>60.68516871456087</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>34.30069082241909</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>160.6612066001147</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23501,19 +23501,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>209.6248565600517</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>341.6471816905901</v>
+        <v>277.374780647953</v>
       </c>
       <c r="G14" t="n">
-        <v>337.9528155621449</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>249.7639075344423</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>65.87543334372786</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23555,7 +23555,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>296.2107322866635</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23653,19 +23653,19 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>97.42475435993872</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>82.99846957177844</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>82.92491162465755</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>84.67436304442482</v>
       </c>
       <c r="G16" t="n">
-        <v>54.71022589820864</v>
+        <v>95.49320096681696</v>
       </c>
       <c r="H16" t="n">
         <v>82.845453133389</v>
@@ -23698,16 +23698,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>51.58366707901685</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>162.2835489187162</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>8.697944490033336</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1316673.754478138</v>
+        <v>1315169.885443737</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1316673.754478138</v>
+        <v>1315169.885443737</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1180034.628931587</v>
+        <v>1180034.628931588</v>
       </c>
     </row>
     <row r="6">
@@ -26363,13 +26363,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>182204.9482918559</v>
+        <v>173858.6570340548</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>14822.1403106219</v>
+        <v>22558.42953401379</v>
       </c>
       <c r="E3" t="n">
         <v>112122.5614740446</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>206802.1491945026</v>
+        <v>200285.8640399292</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>57301.4717972855</v>
+        <v>62456.24177539696</v>
       </c>
       <c r="M3" t="n">
-        <v>42200.82945962298</v>
+        <v>43252.52447081116</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>27767.69404277122</v>
+        <v>27767.69404277131</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>221554.6110489512</v>
+        <v>226762.9162907737</v>
       </c>
       <c r="C4" t="n">
-        <v>221554.6110489511</v>
+        <v>226762.9162907738</v>
       </c>
       <c r="D4" t="n">
         <v>211575.8953047903</v>
@@ -26445,7 +26445,7 @@
         <v>187115.3694404867</v>
       </c>
       <c r="L4" t="n">
-        <v>186859.7955400033</v>
+        <v>186726.4009309486</v>
       </c>
       <c r="M4" t="n">
         <v>186364.8769761035</v>
@@ -26457,7 +26457,7 @@
         <v>186364.8769761035</v>
       </c>
       <c r="P4" t="n">
-        <v>186364.8769761035</v>
+        <v>186364.8769761036</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>66684.30114001378</v>
+        <v>65170.06753481716</v>
       </c>
       <c r="C5" t="n">
-        <v>66684.30114001378</v>
+        <v>65170.06753481716</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
@@ -26497,19 +26497,19 @@
         <v>63659.0452539195</v>
       </c>
       <c r="L5" t="n">
-        <v>61795.7362917385</v>
+        <v>60823.19813315419</v>
       </c>
       <c r="M5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551965</v>
       </c>
       <c r="N5" t="n">
         <v>58169.76931551966</v>
       </c>
       <c r="O5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551967</v>
       </c>
       <c r="P5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551967</v>
       </c>
     </row>
     <row r="6">
@@ -26519,19 +26519,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-470443.8604808208</v>
+        <v>-465791.6408596457</v>
       </c>
       <c r="C6" t="n">
-        <v>-288238.9121889649</v>
+        <v>-291932.9838255909</v>
       </c>
       <c r="D6" t="n">
-        <v>-295983.4928925853</v>
+        <v>-303719.7821159773</v>
       </c>
       <c r="E6" t="n">
-        <v>-303914.5416584064</v>
+        <v>-304124.2732050961</v>
       </c>
       <c r="F6" t="n">
-        <v>-191791.9801843619</v>
+        <v>-192001.7117310514</v>
       </c>
       <c r="G6" t="n">
         <v>-291959.9718283052</v>
@@ -26543,25 +26543,25 @@
         <v>-244534.6462916232</v>
       </c>
       <c r="J6" t="n">
-        <v>-457576.5638889088</v>
+        <v>-451060.2787343354</v>
       </c>
       <c r="K6" t="n">
-        <v>-250774.4146944062</v>
+        <v>-250774.4146944061</v>
       </c>
       <c r="L6" t="n">
-        <v>-305957.0036290273</v>
+        <v>-310005.8408394998</v>
       </c>
       <c r="M6" t="n">
-        <v>-286735.4757512462</v>
+        <v>-287787.1707624343</v>
       </c>
       <c r="N6" t="n">
         <v>-244534.6462916232</v>
       </c>
       <c r="O6" t="n">
-        <v>-272302.3403343944</v>
+        <v>-272302.3403343945</v>
       </c>
       <c r="P6" t="n">
-        <v>-244534.6462916232</v>
+        <v>-244534.6462916233</v>
       </c>
     </row>
   </sheetData>
@@ -26692,7 +26692,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="F2" t="n">
         <v>71.07831239473195</v>
@@ -26707,13 +26707,13 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="K2" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="L2" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="M2" t="n">
         <v>130.3599693155844</v>
@@ -26725,7 +26725,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="P2" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
     </row>
     <row r="3">
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344372</v>
+        <v>518.7905844542296</v>
       </c>
       <c r="C4" t="n">
-        <v>543.6957424344372</v>
+        <v>518.7905844542296</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26811,22 +26811,22 @@
         <v>776.4890963014441</v>
       </c>
       <c r="J4" t="n">
-        <v>917.0607368443783</v>
+        <v>917.060736844378</v>
       </c>
       <c r="K4" t="n">
-        <v>917.0607368443783</v>
+        <v>917.0607368443782</v>
       </c>
       <c r="L4" t="n">
-        <v>869.3443530095204</v>
+        <v>844.4391950293127</v>
       </c>
       <c r="M4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.489096301444</v>
       </c>
       <c r="N4" t="n">
         <v>776.4890963014441</v>
       </c>
       <c r="O4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014442</v>
       </c>
       <c r="P4" t="n">
         <v>776.4890963014441</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>34.70961755346403</v>
+        <v>34.70961755346414</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>71.62683974660688</v>
+        <v>78.0703022192462</v>
       </c>
       <c r="M2" t="n">
-        <v>24.02351201551348</v>
+        <v>17.58004954287412</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346403</v>
+        <v>34.70961755346414</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344372</v>
+        <v>518.7905844542296</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>47.71638383485788</v>
+        <v>72.62154181506548</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.2673829773714</v>
+        <v>659.3622249971635</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>92.22171332407265</v>
+        <v>117.1268713042803</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346403</v>
+        <v>34.70961755346414</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>543.6957424344372</v>
+        <v>518.7905844542296</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>47.71638383485788</v>
+        <v>72.62154181506548</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
-        <v>398.5576896346209</v>
+        <v>299.0806133362951</v>
       </c>
       <c r="F2" t="n">
-        <v>340.8559499010296</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27439,7 +27439,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>385.5580790162737</v>
@@ -27461,16 +27461,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E3" t="n">
-        <v>66.31852263746151</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27503,10 +27503,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>19.46023144204076</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>116.999671016706</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>154.8494418714224</v>
       </c>
     </row>
     <row r="5">
@@ -27619,22 +27619,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>159.9879199437763</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,19 +27661,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
         <v>367.2890446813954</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>392.5258019886049</v>
+        <v>278.1906868038756</v>
       </c>
     </row>
     <row r="6">
@@ -27701,19 +27701,19 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>61.9902543306162</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27746,7 +27746,7 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>145.5218557922927</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27774,7 +27774,7 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C7" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>154.0767819665104</v>
@@ -27822,16 +27822,16 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>200.7879229792761</v>
+        <v>115.466682045525</v>
       </c>
       <c r="T7" t="n">
-        <v>230.3761846104852</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
         <v>280.4970980481341</v>
@@ -27840,7 +27840,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="8">
@@ -27850,22 +27850,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>320.8422199291742</v>
@@ -27898,28 +27898,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>319.555221483835</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
-        <v>165.6604768226763</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>130.3195537952425</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
         <v>168.5030667546707</v>
@@ -28056,22 +28056,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>134.7564242791755</v>
       </c>
       <c r="V10" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>231.7395189948467</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="C11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="D11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="E11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="F11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="G11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="H11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="I11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="T11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="U11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="V11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="W11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="X11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="Y11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473201</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="C13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="D13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="E13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="F13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="G13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="H13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="I13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="J13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="K13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="L13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="M13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="N13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="O13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="P13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="Q13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="R13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="S13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="T13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="U13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="V13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="W13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="X13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="Y13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473201</v>
       </c>
     </row>
     <row r="14">
@@ -28752,7 +28752,7 @@
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -28761,13 +28761,13 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>5.636002634529063</v>
       </c>
       <c r="Q19" t="n">
-        <v>128.2979821082778</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>130.3599693155844</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S19" t="n">
         <v>130.3599693155844</v>
@@ -28992,16 +28992,16 @@
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="O22" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>5.636002634529005</v>
+        <v>5.636002634529465</v>
       </c>
       <c r="R22" t="n">
         <v>122.6619794737488</v>
@@ -29229,13 +29229,13 @@
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>128.2979821082783</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>128.2979821082778</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="C26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="D26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="E26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="F26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="G26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="H26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="I26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="J26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="M26" t="n">
-        <v>93.99127447431646</v>
+        <v>30.27223765901135</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="O26" t="n">
-        <v>30.27223765901266</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="P26" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="R26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="S26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="T26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="U26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="V26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="W26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="X26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Y26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="C28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="D28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="E28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="F28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="G28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="H28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="I28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="J28" t="n">
-        <v>93.99127447431634</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="K28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="L28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="M28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="N28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="O28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="P28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Q28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="R28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="S28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="T28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="U28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="V28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="W28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="X28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
     </row>
     <row r="29">
@@ -29533,16 +29533,16 @@
         <v>93.99127447431646</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K29" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="L29" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>86.65052755599584</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>93.99127447431646</v>
@@ -29551,10 +29551,10 @@
         <v>93.99127447431646</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q29" t="n">
-        <v>93.99127447431646</v>
+        <v>86.65052755599532</v>
       </c>
       <c r="R29" t="n">
         <v>37.61298457733328</v>
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="C32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="D32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="E32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="F32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="G32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="H32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="I32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>106.3364573000709</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="N32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>43.49509683159511</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>106.3364573000709</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>86.27291196566637</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="T32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="U32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="V32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="W32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="X32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="Y32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727102</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="C34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="D34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="E34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="F34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="G34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="H34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="I34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="J34" t="n">
-        <v>30.07448747215907</v>
+        <v>106.8683420224672</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>94.97643844045359</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="N34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="O34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="P34" t="n">
-        <v>106.3364573000709</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>106.3364573000709</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="S34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="T34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="U34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="V34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="W34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="X34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727102</v>
       </c>
       <c r="Y34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727102</v>
       </c>
     </row>
     <row r="35">
@@ -30171,16 +30171,16 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>5.636002634529149</v>
       </c>
       <c r="O37" t="n">
-        <v>128.2979821082778</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -30189,7 +30189,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>130.3599693155844</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S37" t="n">
         <v>130.3599693155844</v>
@@ -30405,7 +30405,7 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K40" t="n">
-        <v>5.636002634529035</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -30414,13 +30414,13 @@
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="O40" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>5.636002634529063</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -30645,19 +30645,19 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>5.636002634529035</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>5.636002634529035</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="C44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="D44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="E44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="F44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="G44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="H44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="I44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="T44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="U44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="V44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="W44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="X44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="Y44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
     </row>
     <row r="45">
@@ -30852,34 +30852,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="C46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="D46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="E46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="F46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="G46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="H46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="I46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="J46" t="n">
-        <v>30.07448747215907</v>
+        <v>35.71049010668693</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -30891,10 +30891,10 @@
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>5.636002634529518</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
@@ -30903,25 +30903,25 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="T46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="U46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="V46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="W46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="X46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="Y46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
     </row>
   </sheetData>
@@ -34699,16 +34699,16 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>33.71826330950172</v>
       </c>
       <c r="L2" t="n">
-        <v>498.303324968211</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>138.4677594163678</v>
+        <v>518.7905844542296</v>
       </c>
       <c r="N2" t="n">
-        <v>533.1427107449111</v>
+        <v>518.7905844542296</v>
       </c>
       <c r="O2" t="n">
         <v>444.4844453457863</v>
@@ -34784,13 +34784,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>543.6957424344372</v>
+        <v>370.1689632019368</v>
       </c>
       <c r="N3" t="n">
-        <v>440.9310934046787</v>
+        <v>518.7905844542296</v>
       </c>
       <c r="O3" t="n">
-        <v>521.7376591828091</v>
+        <v>518.7905844542296</v>
       </c>
       <c r="P3" t="n">
         <v>409.7185542589873</v>
@@ -34936,22 +34936,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>93.07534195014166</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M5" t="n">
-        <v>543.6957424344372</v>
+        <v>518.7905844542296</v>
       </c>
       <c r="N5" t="n">
-        <v>533.1427107449111</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P5" t="n">
-        <v>351.7045375065877</v>
+        <v>43.30161987032841</v>
       </c>
       <c r="Q5" t="n">
         <v>186.7126870110591</v>
@@ -35018,16 +35018,16 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>440.9310934046787</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>370.1689632019368</v>
       </c>
       <c r="N6" t="n">
-        <v>543.6957424344372</v>
+        <v>518.7905844542296</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>518.7905844542296</v>
       </c>
       <c r="P6" t="n">
         <v>409.7185542589873</v>
@@ -35173,13 +35173,13 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L8" t="n">
-        <v>274.1926243725203</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M8" t="n">
-        <v>551.5160606510915</v>
+        <v>503.2141441412681</v>
       </c>
       <c r="N8" t="n">
         <v>533.1427107449111</v>
@@ -35188,10 +35188,10 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P8" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35258,7 +35258,7 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>582.1523102088539</v>
+        <v>582.1523102088538</v>
       </c>
       <c r="N9" t="n">
         <v>591.4121262692951</v>
@@ -35495,10 +35495,10 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>511.1624453563714</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N12" t="n">
-        <v>662.4019911217769</v>
+        <v>539.4516590774601</v>
       </c>
       <c r="O12" t="n">
         <v>521.7376591828091</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>41.00382492257288</v>
+        <v>41.00382492257294</v>
       </c>
       <c r="K13" t="n">
-        <v>153.7399700815419</v>
+        <v>153.739970081542</v>
       </c>
       <c r="L13" t="n">
-        <v>236.8638072167519</v>
+        <v>236.863807216752</v>
       </c>
       <c r="M13" t="n">
         <v>259.2516238475239</v>
       </c>
       <c r="N13" t="n">
-        <v>256.1183467696907</v>
+        <v>256.1183467696908</v>
       </c>
       <c r="O13" t="n">
-        <v>235.4265619318108</v>
+        <v>235.4265619318109</v>
       </c>
       <c r="P13" t="n">
-        <v>192.1653485326901</v>
+        <v>192.1653485326902</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.53507640488444</v>
+        <v>74.53507640488449</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35963,13 +35963,13 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>188.193610950082</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>511.1624453563714</v>
       </c>
       <c r="N18" t="n">
         <v>662.4019911217769</v>
@@ -36048,7 +36048,7 @@
         <v>165.78549482202</v>
       </c>
       <c r="M19" t="n">
-        <v>188.1733114527919</v>
+        <v>318.5332807683764</v>
       </c>
       <c r="N19" t="n">
         <v>185.0400343749588</v>
@@ -36057,13 +36057,13 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P19" t="n">
-        <v>121.0870361379582</v>
+        <v>126.7230387724872</v>
       </c>
       <c r="Q19" t="n">
-        <v>131.7547461184303</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R19" t="n">
-        <v>7.697989841835579</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36197,22 +36197,22 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L21" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M21" t="n">
-        <v>22.71185353989332</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N21" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>521.7376591828091</v>
+        <v>135.5123342397976</v>
       </c>
       <c r="P21" t="n">
         <v>409.7185542589873</v>
@@ -36288,16 +36288,16 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N22" t="n">
-        <v>185.0400343749588</v>
+        <v>315.4000036905431</v>
       </c>
       <c r="O22" t="n">
-        <v>294.7082188526632</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P22" t="n">
         <v>121.0870361379582</v>
       </c>
       <c r="Q22" t="n">
-        <v>9.092766644681488</v>
+        <v>9.092766644681948</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36443,19 +36443,19 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>73.93605315237758</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N24" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O24" t="n">
-        <v>521.7376591828091</v>
+        <v>198.2933506465095</v>
       </c>
       <c r="P24" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q24" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36525,19 +36525,19 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N25" t="n">
-        <v>185.0400343749588</v>
+        <v>313.3380164832371</v>
       </c>
       <c r="O25" t="n">
         <v>164.3482495370789</v>
       </c>
       <c r="P25" t="n">
-        <v>249.385018246236</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q25" t="n">
         <v>3.456764010152483</v>
       </c>
       <c r="R25" t="n">
-        <v>7.697989841835579</v>
+        <v>7.69798984183555</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36592,7 +36592,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>240.1021562004054</v>
+        <v>240.1021562004055</v>
       </c>
       <c r="K26" t="n">
         <v>362.6084404317796</v>
@@ -36601,22 +36601,22 @@
         <v>592.2945994425274</v>
       </c>
       <c r="M26" t="n">
-        <v>645.507335125408</v>
+        <v>581.7882983101028</v>
       </c>
       <c r="N26" t="n">
-        <v>533.1427107449111</v>
+        <v>627.1339852192276</v>
       </c>
       <c r="O26" t="n">
-        <v>474.756683004799</v>
+        <v>538.4757198201028</v>
       </c>
       <c r="P26" t="n">
-        <v>445.6958119809042</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q26" t="n">
         <v>280.7039614853756</v>
       </c>
       <c r="R26" t="n">
-        <v>56.37828989698318</v>
+        <v>56.3782898969832</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,16 +36671,16 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>511.1624453563711</v>
+        <v>554.905265713187</v>
       </c>
       <c r="N27" t="n">
         <v>662.4019911217769</v>
@@ -36689,10 +36689,10 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P27" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.91678700215727</v>
+        <v>63.91678700215741</v>
       </c>
       <c r="K28" t="n">
         <v>176.6529321611264</v>
@@ -36768,10 +36768,10 @@
         <v>258.3395240113953</v>
       </c>
       <c r="P28" t="n">
-        <v>215.0783106122746</v>
+        <v>215.0783106122747</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.44803848446894</v>
+        <v>97.44803848446897</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,16 +36829,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>146.110881726089</v>
+        <v>240.1021562004054</v>
       </c>
       <c r="K29" t="n">
         <v>456.5997149060961</v>
       </c>
       <c r="L29" t="n">
-        <v>592.2945994425274</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M29" t="n">
-        <v>638.1665882070873</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N29" t="n">
         <v>627.1339852192276</v>
@@ -36847,10 +36847,10 @@
         <v>538.4757198201028</v>
       </c>
       <c r="P29" t="n">
-        <v>351.7045375065877</v>
+        <v>445.6958119809042</v>
       </c>
       <c r="Q29" t="n">
-        <v>280.7039614853756</v>
+        <v>273.3632145670545</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36908,16 +36908,16 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>73.9360531523773</v>
       </c>
       <c r="M30" t="n">
-        <v>511.1624453563711</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>662.4019911217769</v>
@@ -37069,28 +37069,28 @@
         <v>146.110881726089</v>
       </c>
       <c r="K32" t="n">
-        <v>468.9448977318505</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L32" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M32" t="n">
-        <v>551.5160606510915</v>
+        <v>664.2959804238017</v>
       </c>
       <c r="N32" t="n">
-        <v>639.4791680449821</v>
+        <v>645.9226305176214</v>
       </c>
       <c r="O32" t="n">
-        <v>444.4844453457863</v>
+        <v>487.9795421773814</v>
       </c>
       <c r="P32" t="n">
         <v>351.7045375065877</v>
       </c>
       <c r="Q32" t="n">
-        <v>293.04914431113</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R32" t="n">
-        <v>48.65992738833309</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>76.79385455030811</v>
       </c>
       <c r="K34" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L34" t="n">
-        <v>260.7619332624736</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M34" t="n">
-        <v>188.1733114527919</v>
+        <v>300.9532312255022</v>
       </c>
       <c r="N34" t="n">
-        <v>291.3764916750297</v>
+        <v>297.819954147669</v>
       </c>
       <c r="O34" t="n">
-        <v>270.6847068371497</v>
+        <v>277.1281693097891</v>
       </c>
       <c r="P34" t="n">
-        <v>227.4234934380291</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q34" t="n">
-        <v>109.7932213102234</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37318,7 +37318,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O35" t="n">
-        <v>444.4844453457863</v>
+        <v>444.4844453457864</v>
       </c>
       <c r="P35" t="n">
         <v>351.7045375065877</v>
@@ -37382,19 +37382,19 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>22.71185353989332</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N36" t="n">
-        <v>662.4019911217769</v>
+        <v>425.1941012797557</v>
       </c>
       <c r="O36" t="n">
         <v>521.7376591828091</v>
@@ -37467,16 +37467,16 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L37" t="n">
-        <v>165.78549482202</v>
+        <v>296.1454641376043</v>
       </c>
       <c r="M37" t="n">
         <v>188.1733114527919</v>
       </c>
       <c r="N37" t="n">
-        <v>185.0400343749588</v>
+        <v>190.6760370094879</v>
       </c>
       <c r="O37" t="n">
-        <v>292.6462316453567</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P37" t="n">
         <v>121.0870361379582</v>
@@ -37485,7 +37485,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R37" t="n">
-        <v>7.697989841835579</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37622,16 +37622,16 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>511.1624453563714</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N39" t="n">
-        <v>662.4019911217769</v>
+        <v>216.4828246711707</v>
       </c>
       <c r="O39" t="n">
         <v>521.7376591828091</v>
@@ -37701,7 +37701,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>88.29766032133901</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L40" t="n">
         <v>165.78549482202</v>
@@ -37710,13 +37710,13 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N40" t="n">
-        <v>185.0400343749588</v>
+        <v>315.4000036905431</v>
       </c>
       <c r="O40" t="n">
-        <v>294.7082188526632</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P40" t="n">
-        <v>121.0870361379582</v>
+        <v>126.7230387724872</v>
       </c>
       <c r="Q40" t="n">
         <v>3.456764010152483</v>
@@ -37856,22 +37856,22 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N42" t="n">
-        <v>539.4516590774601</v>
+        <v>135.5123342397976</v>
       </c>
       <c r="O42" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>409.7185542589873</v>
@@ -37941,19 +37941,19 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L43" t="n">
-        <v>165.78549482202</v>
+        <v>171.421497456549</v>
       </c>
       <c r="M43" t="n">
         <v>188.1733114527919</v>
       </c>
       <c r="N43" t="n">
-        <v>190.6760370094878</v>
+        <v>315.4000036905431</v>
       </c>
       <c r="O43" t="n">
         <v>164.3482495370789</v>
       </c>
       <c r="P43" t="n">
-        <v>251.4470054535425</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q43" t="n">
         <v>3.456764010152483</v>
@@ -38096,22 +38096,22 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>320.0552895810019</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
-        <v>511.1624453563714</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N45" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O45" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>236.7324157120106</v>
@@ -38172,10 +38172,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>5.63600263452786</v>
       </c>
       <c r="K46" t="n">
-        <v>82.66165768680997</v>
+        <v>213.0216270023944</v>
       </c>
       <c r="L46" t="n">
         <v>165.78549482202</v>
@@ -38187,10 +38187,10 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O46" t="n">
-        <v>294.7082188526632</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P46" t="n">
-        <v>126.7230387724877</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q46" t="n">
         <v>3.456764010152483</v>
